--- a/Datos/Anuario2024/030801_ControlTrafico.xlsx
+++ b/Datos/Anuario2024/030801_ControlTrafico.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="0" sheetId="99" r:id="rId1"/>
+    <sheet name="1" sheetId="100" r:id="rId2"/>
+    <sheet name="2" sheetId="101" r:id="rId3"/>
+    <sheet name="3" sheetId="102" r:id="rId4"/>
+    <sheet name="4" sheetId="103" r:id="rId5"/>
+    <sheet name="5" sheetId="104" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -80,95 +86,416 @@
     <definedName name="p">'[2]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[2]4.17'!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId131" roundtripDataSignature="AMtx7mjoholsyV4wm7X8410XmcGaQJqvwA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Centrales de zona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Regulados por semáforos centralizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Regulados por semáforos no centralizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Semáforos invidentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sensor infrarrojos para los viandantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Pulsador para los viandantes</t>
+  </si>
+  <si>
+    <t>Paneles informativos de plazas de aparcamiento</t>
+  </si>
+  <si>
+    <t>Paneles alfanuméricos urbanos</t>
+  </si>
+  <si>
+    <t>Paneles de itinerarios alternativos</t>
+  </si>
+  <si>
+    <t>Paneles PCR Full Color</t>
+  </si>
+  <si>
+    <t>Puntos de medida</t>
+  </si>
+  <si>
+    <t>Reguladores de cruces</t>
+  </si>
+  <si>
+    <t>Cámaras fijas</t>
+  </si>
+  <si>
+    <t>Cámaras móviles</t>
+  </si>
+  <si>
+    <t>Cámaras túneles</t>
+  </si>
+  <si>
+    <t>Grupos o zonas de control</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>IMD Anual</t>
+  </si>
+  <si>
+    <t>Acceso Ausiàs March (V-31)</t>
+  </si>
+  <si>
+    <t>Acceso Autopista del Saler (V-15)</t>
+  </si>
+  <si>
+    <t>Acceso Av. Cataluña (V-21)</t>
+  </si>
+  <si>
+    <t>Acceso Av. del Cid (A-3)</t>
+  </si>
+  <si>
+    <t>Acceso Camino Nuevo de Picanya (CV-36)</t>
+  </si>
+  <si>
+    <t>Acceso Corts Valencianes (CV-35)</t>
+  </si>
+  <si>
+    <t>Acceso Hermanos Machado (CV-30)</t>
+  </si>
+  <si>
+    <t>Lunes laborable</t>
+  </si>
+  <si>
+    <t>Martes laborable</t>
+  </si>
+  <si>
+    <t>Miércoles laborable</t>
+  </si>
+  <si>
+    <t>Jueves laborable</t>
+  </si>
+  <si>
+    <t>Viernes laborable</t>
+  </si>
+  <si>
+    <t>Festivos</t>
+  </si>
+  <si>
+    <t>Descripción de la Vía</t>
+  </si>
+  <si>
+    <t>AUSIAS MARCH (entre Fernando Abril Martorell y Hermanos Maristas)</t>
+  </si>
+  <si>
+    <t>PUENTE NUEVE de OCTUBRE (entre Pechina y Manuel de Falla)</t>
+  </si>
+  <si>
+    <t>MARQUES del TURIA (entre Puente Aragón y Hernán Cortés)</t>
+  </si>
+  <si>
+    <t>PEREZ GALDOS (entre Ángel Guimerá y Paseo Pechina)</t>
+  </si>
+  <si>
+    <t>TRES CRUCES (entre Av. del Cid y Tres Forques)</t>
+  </si>
+  <si>
+    <t>GIORGETA (entre San Vicente Mártir y Jesús)</t>
+  </si>
+  <si>
+    <t>RONDA NORTE (entre Av. Cataluña y Emilio Baró)</t>
+  </si>
+  <si>
+    <t>GERMANIAS (entre Ruzafa y Túnel)</t>
+  </si>
+  <si>
+    <t>P.E. GIORGETA (entre San Vicente y Ausias March)</t>
+  </si>
+  <si>
+    <t>Av. de ARAGON (entre Pl. Zaragoza y Ernesto Ferrer)</t>
+  </si>
+  <si>
+    <t>DOCTOR PESET ALEIXANDRE (entre Av. Burjasot y Juan XXIII)</t>
+  </si>
+  <si>
+    <t>DOCTOR PESET ALEIXANDRE (entre Juan XXIII y Camino de Moncada)</t>
+  </si>
+  <si>
+    <t>RAMON Y CAJAL (entre Pl. España y Ángel Guimerá)</t>
+  </si>
+  <si>
+    <t>TRES CRUCES (entre Tres Forques y Archiduque Carlos)</t>
+  </si>
+  <si>
+    <t>AUSIAS MARCH (entre Av. de la Plata y Peris y Valero)</t>
+  </si>
+  <si>
+    <t>FERNANDO EL CATOLICO (entre Ángel Guimerá y Paseo Pechina)</t>
+  </si>
+  <si>
+    <t>GENERAL AVILES (entre Pío XII y Av. Burjasot)</t>
+  </si>
+  <si>
+    <t>SERRERIA (entre Av. del Puerto y Santos Justo y Pastor)</t>
+  </si>
+  <si>
+    <t>PRIMADO REIG (entre Av. Constitución y Alfahuir)</t>
+  </si>
+  <si>
+    <t>MAESTRO RODRIGO (entre Valle de la Ballestera y General Avilés)</t>
+  </si>
+  <si>
+    <t>Av. de los NARANJOS (entre Ramón Llull y Av. de Cataluña)</t>
+  </si>
+  <si>
+    <t>SERRERIA (entre Santos Justo y Pastor y Blasco Ibáñez)</t>
+  </si>
+  <si>
+    <t>MAESTRO RODRIGO (entre Puente Campanar y Valle de la Ballestera)</t>
+  </si>
+  <si>
+    <t>CONDE TRENOR (de Puente de Serranos a Puente de la Trinidad)</t>
+  </si>
+  <si>
+    <t>BLASCO IBAÑEZ (entre Avenida de Aragón y Clariano)</t>
+  </si>
+  <si>
+    <t>BLASCO IBAÑEZ (entre Doctor Moliner y Av. Aragón)</t>
+  </si>
+  <si>
+    <t>EDUARDO BOSCA (entre Paseo de la Alameda y Av. del Puerto)</t>
+  </si>
+  <si>
+    <t>ALCALDE REIG (de Av. de la Plata a Reino de Valencia)</t>
+  </si>
+  <si>
+    <t>PERIS Y VALERO (entre Ausias March y Zapadores)</t>
+  </si>
+  <si>
+    <t>BLANQUERIAS (de Puente de San José a Pte. de Serranos)</t>
+  </si>
+  <si>
+    <t>LUIS PEIXO (entre Blasco Ibáñez y Av. de los Naranjos)</t>
+  </si>
+  <si>
+    <t>FERNANDO ABRIL MARTORELL (entre Carrera de Malilla y Ausias March)</t>
+  </si>
+  <si>
+    <t>PUENTE de MONTEOLIVETE (entre Alameda y Profesor López Piñero)</t>
+  </si>
+  <si>
+    <t>PINTOR LOPEZ (de Puente de la Trinidad a Puente del Real)</t>
+  </si>
+  <si>
+    <t>DOCTOR MANUEL CANDELA (entre Av. del Puerto y Santos Justo y Pastor)</t>
+  </si>
+  <si>
+    <t>Detectores de bicicletas</t>
+  </si>
+  <si>
+    <t>Detectores de tráfico (vehículos)</t>
+  </si>
+  <si>
+    <t>Cámaras pedanías</t>
+  </si>
+  <si>
+    <t>CORTES VALENCIANAS (entre Camp del Turia y La Safor)</t>
+  </si>
+  <si>
+    <t>GUILLEM de CASTRO (de Puente de las Artes a Puente de San José)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1. Infraestructura para el control del tráfico urbano. 2023</t>
+  </si>
+  <si>
+    <t>2. Intensidad media diaria en los accesos a la ciudad según mes. 2023</t>
+  </si>
+  <si>
+    <t>3. Intensidad media diaria en los accesos a la ciudad según día de la semana. 2023</t>
+  </si>
+  <si>
+    <t>Vías</t>
+  </si>
+  <si>
+    <t>4. Intensidad media diaria en los tramos con mayor intensidad de la red viaria según mes. 2023</t>
+  </si>
+  <si>
+    <t>5. Intensidad media diaria en los tramos con mayor intensidad de la red viaria según día de la semana. 2023</t>
+  </si>
+  <si>
+    <t>CONTROL E INTENSIDAD DE TRÁFICO</t>
+  </si>
+  <si>
+    <t>Paneles de señales de tranvía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Indicador del tiempo de verde</t>
+  </si>
+  <si>
+    <t>P.I. GERMANIAS (Puente Aragón)</t>
+  </si>
+  <si>
+    <t>CARDENAL BENLLOCH (entre Santos Justo y Pastor y Blasco Ibáñez)</t>
+  </si>
+  <si>
+    <t>Nota: Datos correspondientes a intensidades de lunes a viernes de días laborables. (-) Sin datos.</t>
+  </si>
+  <si>
+    <t>Nota: Se incluyen los tramos con medición de intensidad de tráfico y cuya IMD anual es superior a 30.000 vehículos. Datos correspondientes a intensidades de lunes a viernes de días laborables. (-) Sin datos.</t>
+  </si>
+  <si>
+    <t>Nota: Se incluyen los tramos con medición de intensidad de tráfico y cuya IMD anual es superior a 30.000 vehículos. (-) Sin datos.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -210,158 +537,99 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -12049,7 +12317,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -15844,8 +16112,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -16752,4676 +17020,4225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="44.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>CONTROL E INTENSIDAD DE TRÁFICO</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="37.140625" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>1. Infraestructura para el control del tráfico urbano. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="n"/>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="13" t="n"/>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="13"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Centrales de zona</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="n">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cruces </t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="n"/>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Regulados por semáforos centralizados</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Regulados por semáforos no centralizados</t>
-        </is>
-      </c>
-      <c r="B7" s="12" t="n">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Semáforos invidentes</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="13">
         <v>778</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Sensor infrarrojos para los viandantes</t>
-        </is>
-      </c>
-      <c r="B9" s="12" t="n">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12">
         <v>42</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Pulsador para los viandantes</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="n">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="13">
         <v>127</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Indicador del tiempo de verde</t>
-        </is>
-      </c>
-      <c r="B11" s="12" t="n">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="12">
         <v>268</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Paneles informativos de plazas de aparcamiento</t>
-        </is>
-      </c>
-      <c r="B12" s="13" t="n">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="14" t="inlineStr">
-        <is>
-          <t>Paneles alfanuméricos urbanos</t>
-        </is>
-      </c>
-      <c r="B13" s="12" t="n">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="12">
         <v>82</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Paneles de itinerarios alternativos</t>
-        </is>
-      </c>
-      <c r="B14" s="13" t="n">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="13">
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="14" t="inlineStr">
-        <is>
-          <t>Paneles PCR Full Color</t>
-        </is>
-      </c>
-      <c r="B15" s="12" t="n">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Paneles de señales de tranvía</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="n">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="13">
         <v>124</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="14" t="inlineStr">
-        <is>
-          <t>Detectores de tráfico (vehículos)</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="n">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="12">
         <v>2790</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Detectores de bicicletas</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="n">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="13">
         <v>150</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="14" t="inlineStr">
-        <is>
-          <t>Puntos de medida</t>
-        </is>
-      </c>
-      <c r="B19" s="12" t="n">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="12">
         <v>1357</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Reguladores de cruces</t>
-        </is>
-      </c>
-      <c r="B20" s="13" t="n">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="13">
         <v>1064</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="14" t="inlineStr">
-        <is>
-          <t>Cámaras fijas</t>
-        </is>
-      </c>
-      <c r="B21" s="12" t="n">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="12">
         <v>690</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Cámaras móviles</t>
-        </is>
-      </c>
-      <c r="B22" s="13" t="n">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="13">
         <v>116</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="14" t="inlineStr">
-        <is>
-          <t>Cámaras túneles</t>
-        </is>
-      </c>
-      <c r="B23" s="12" t="n">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="12">
         <v>201</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Cámaras pedanías</t>
-        </is>
-      </c>
-      <c r="B24" s="13" t="n">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="14" t="inlineStr">
-        <is>
-          <t>Grupos o zonas de control</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="n">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="12">
         <v>137</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="B26" s="11" t="n"/>
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="37.140625" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" min="2" max="14"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>2. Intensidad media diaria en los accesos a la ciudad según mes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
-      <c r="N2" s="3" t="n"/>
+    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Vías</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>IMD Anual</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
+    <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="15" t="inlineStr">
-        <is>
-          <t>Acceso Ausiàs March (V-31)</t>
-        </is>
-      </c>
-      <c r="B4" s="16" t="n">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="16">
         <v>108657.508196</v>
       </c>
-      <c r="C4" s="16" t="n">
-        <v>106815.19047619</v>
-      </c>
-      <c r="D4" s="16" t="n">
+      <c r="C4" s="16">
+        <v>106815.19047618999</v>
+      </c>
+      <c r="D4" s="16">
         <v>109042.6</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="16">
         <v>107696.347826087</v>
       </c>
-      <c r="F4" s="16" t="n">
+      <c r="F4" s="16">
         <v>111042.733333333</v>
       </c>
-      <c r="G4" s="16" t="n">
+      <c r="G4" s="16">
         <v>110902.318181818</v>
       </c>
-      <c r="H4" s="16" t="n">
+      <c r="H4" s="16">
         <v>112806.047619048</v>
       </c>
-      <c r="I4" s="16" t="n">
-        <v>111152.80952381</v>
-      </c>
-      <c r="J4" s="16" t="n">
-        <v>95094.1904761905</v>
-      </c>
-      <c r="K4" s="16" t="n">
+      <c r="I4" s="16">
+        <v>111152.80952381001</v>
+      </c>
+      <c r="J4" s="16">
+        <v>95094.190476190503</v>
+      </c>
+      <c r="K4" s="16">
         <v>110340</v>
       </c>
-      <c r="L4" s="16" t="n">
+      <c r="L4" s="16">
         <v>110158.05</v>
       </c>
-      <c r="M4" s="16" t="n">
+      <c r="M4" s="16">
         <v>109951.285714286</v>
       </c>
-      <c r="N4" s="16" t="n">
+      <c r="N4" s="16">
         <v>109808.944444444</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="17" t="inlineStr">
-        <is>
-          <t>Acceso Autopista del Saler (V-15)</t>
-        </is>
-      </c>
-      <c r="B5" s="18" t="n">
-        <v>33785.0912863</v>
-      </c>
-      <c r="C5" s="18" t="n">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="18">
+        <v>33785.091286299998</v>
+      </c>
+      <c r="C5" s="18">
         <v>31365.0952380952</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="18">
         <v>31591.15</v>
       </c>
-      <c r="E5" s="18" t="n">
-        <v>32053.4285714286</v>
-      </c>
-      <c r="F5" s="18" t="n">
-        <v>34169.2666666667</v>
-      </c>
-      <c r="G5" s="18" t="n">
-        <v>33718.9090909091</v>
-      </c>
-      <c r="H5" s="18" t="n">
-        <v>36438.2857142857</v>
-      </c>
-      <c r="I5" s="18" t="n">
-        <v>39172.4285714286</v>
-      </c>
-      <c r="J5" s="18" t="n">
+      <c r="E5" s="18">
+        <v>32053.428571428602</v>
+      </c>
+      <c r="F5" s="18">
+        <v>34169.266666666699</v>
+      </c>
+      <c r="G5" s="18">
+        <v>33718.909090909103</v>
+      </c>
+      <c r="H5" s="18">
+        <v>36438.285714285703</v>
+      </c>
+      <c r="I5" s="18">
+        <v>39172.428571428602</v>
+      </c>
+      <c r="J5" s="18">
         <v>31823.0476190476</v>
       </c>
-      <c r="K5" s="18" t="n">
-        <v>36423.6</v>
-      </c>
-      <c r="L5" s="18" t="n">
+      <c r="K5" s="18">
+        <v>36423.599999999999</v>
+      </c>
+      <c r="L5" s="18">
         <v>33247.5</v>
       </c>
-      <c r="M5" s="18" t="n">
-        <v>32494.619047619</v>
-      </c>
-      <c r="N5" s="18" t="n">
-        <v>32906.7777777778</v>
+      <c r="M5" s="18">
+        <v>32494.619047618999</v>
+      </c>
+      <c r="N5" s="18">
+        <v>32906.777777777803</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>Acceso Av. Cataluña (V-21)</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="n">
-        <v>78289.80658429999</v>
-      </c>
-      <c r="C6" s="22" t="n">
-        <v>71324.57142857141</v>
-      </c>
-      <c r="D6" s="13" t="n">
-        <v>73255.39999999999</v>
-      </c>
-      <c r="E6" s="22" t="n">
-        <v>74552.8260869565</v>
-      </c>
-      <c r="F6" s="22" t="n">
-        <v>74656.5333333333</v>
-      </c>
-      <c r="G6" s="22" t="n">
-        <v>74156.7142857143</v>
-      </c>
-      <c r="H6" s="22" t="n">
-        <v>83210.6190476191</v>
-      </c>
-      <c r="I6" s="22" t="n">
-        <v>92572.5238095238</v>
-      </c>
-      <c r="J6" s="22" t="n">
-        <v>77739.1428571429</v>
-      </c>
-      <c r="K6" s="22" t="n">
-        <v>80487.5238095238</v>
-      </c>
-      <c r="L6" s="22" t="n">
-        <v>79616.10000000001</v>
-      </c>
-      <c r="M6" s="22" t="n">
-        <v>78811.1428571429</v>
-      </c>
-      <c r="N6" s="22" t="n">
-        <v>78226.8333333333</v>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13">
+        <v>78289.806584299993</v>
+      </c>
+      <c r="C6" s="22">
+        <v>71324.571428571406</v>
+      </c>
+      <c r="D6" s="13">
+        <v>73255.399999999994</v>
+      </c>
+      <c r="E6" s="22">
+        <v>74552.826086956498</v>
+      </c>
+      <c r="F6" s="22">
+        <v>74656.533333333296</v>
+      </c>
+      <c r="G6" s="22">
+        <v>74156.714285714304</v>
+      </c>
+      <c r="H6" s="22">
+        <v>83210.619047619097</v>
+      </c>
+      <c r="I6" s="22">
+        <v>92572.523809523802</v>
+      </c>
+      <c r="J6" s="22">
+        <v>77739.142857142899</v>
+      </c>
+      <c r="K6" s="22">
+        <v>80487.523809523802</v>
+      </c>
+      <c r="L6" s="22">
+        <v>79616.100000000006</v>
+      </c>
+      <c r="M6" s="22">
+        <v>78811.142857142899</v>
+      </c>
+      <c r="N6" s="22">
+        <v>78226.833333333299</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="17" t="inlineStr">
-        <is>
-          <t>Acceso Av. del Cid (A-3)</t>
-        </is>
-      </c>
-      <c r="B7" s="18" t="n">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="18">
         <v>106857.412556</v>
       </c>
-      <c r="C7" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" s="18" t="n">
+      <c r="C7" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="18">
         <v>105725.95</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="18">
         <v>103693.608695652</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="18">
         <v>106913.866666667</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="18">
         <v>110370.772727273</v>
       </c>
-      <c r="H7" s="18" t="n">
-        <v>110832.666666667</v>
-      </c>
-      <c r="I7" s="18" t="n">
-        <v>108326.619047619</v>
-      </c>
-      <c r="J7" s="18" t="n">
-        <v>89145.76190476189</v>
-      </c>
-      <c r="K7" s="18" t="n">
-        <v>110840.476190476</v>
-      </c>
-      <c r="L7" s="18" t="n">
+      <c r="H7" s="18">
+        <v>110832.66666666701</v>
+      </c>
+      <c r="I7" s="18">
+        <v>108326.61904761899</v>
+      </c>
+      <c r="J7" s="18">
+        <v>89145.761904761894</v>
+      </c>
+      <c r="K7" s="18">
+        <v>110840.47619047599</v>
+      </c>
+      <c r="L7" s="18">
         <v>112551.5</v>
       </c>
-      <c r="M7" s="18" t="n">
+      <c r="M7" s="18">
         <v>108368.571428571</v>
       </c>
-      <c r="N7" s="18" t="n">
-        <v>109391.111111111</v>
+      <c r="N7" s="18">
+        <v>109391.11111111099</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="15" t="inlineStr">
-        <is>
-          <t>Acceso Camino Nuevo de Picanya (CV-36)</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
-        <v>79863.3347107</v>
-      </c>
-      <c r="C8" s="16" t="n">
-        <v>79120.1428571429</v>
-      </c>
-      <c r="D8" s="16" t="n">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="16">
+        <v>79863.334710700001</v>
+      </c>
+      <c r="C8" s="16">
+        <v>79120.142857142899</v>
+      </c>
+      <c r="D8" s="16">
         <v>81796.3</v>
       </c>
-      <c r="E8" s="16" t="n">
-        <v>80217.1739130435</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>81629.8666666667</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>83331.4090909091</v>
-      </c>
-      <c r="H8" s="16" t="n">
-        <v>82937.42857142859</v>
-      </c>
-      <c r="I8" s="16" t="n">
-        <v>78943.3809523809</v>
-      </c>
-      <c r="J8" s="16" t="n">
+      <c r="E8" s="16">
+        <v>80217.173913043502</v>
+      </c>
+      <c r="F8" s="16">
+        <v>81629.866666666698</v>
+      </c>
+      <c r="G8" s="16">
+        <v>83331.409090909103</v>
+      </c>
+      <c r="H8" s="16">
+        <v>82937.428571428594</v>
+      </c>
+      <c r="I8" s="16">
+        <v>78943.380952380903</v>
+      </c>
+      <c r="J8" s="16">
         <v>63077</v>
       </c>
-      <c r="K8" s="16" t="n">
-        <v>82070.60000000001</v>
-      </c>
-      <c r="L8" s="16" t="n">
+      <c r="K8" s="16">
+        <v>82070.600000000006</v>
+      </c>
+      <c r="L8" s="16">
         <v>82558.95</v>
       </c>
-      <c r="M8" s="16" t="n">
-        <v>82355.3333333333</v>
-      </c>
-      <c r="N8" s="23" t="n">
-        <v>81210.41176470589</v>
+      <c r="M8" s="16">
+        <v>82355.333333333299</v>
+      </c>
+      <c r="N8" s="23">
+        <v>81210.411764705888</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="17" t="inlineStr">
-        <is>
-          <t>Acceso Corts Valencianes (CV-35)</t>
-        </is>
-      </c>
-      <c r="B9" s="18" t="n">
-        <v>87530.04430369999</v>
-      </c>
-      <c r="C9" s="18" t="n">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="18">
+        <v>87530.044303699993</v>
+      </c>
+      <c r="C9" s="18">
         <v>86071</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="18">
         <v>88147</v>
       </c>
-      <c r="E9" s="18" t="n">
-        <v>84266.22727272729</v>
-      </c>
-      <c r="F9" s="18" t="n">
-        <v>85911.39999999999</v>
-      </c>
-      <c r="G9" s="18" t="n">
-        <v>88413.8636363636</v>
-      </c>
-      <c r="H9" s="18" t="n">
+      <c r="E9" s="18">
+        <v>84266.227272727294</v>
+      </c>
+      <c r="F9" s="18">
+        <v>85911.4</v>
+      </c>
+      <c r="G9" s="18">
+        <v>88413.863636363603</v>
+      </c>
+      <c r="H9" s="18">
         <v>89835.8</v>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="18">
         <v>86607.25</v>
       </c>
-      <c r="J9" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K9" s="18" t="n">
-        <v>91633.39999999999</v>
-      </c>
-      <c r="L9" s="18" t="n">
-        <v>90249.1428571429</v>
-      </c>
-      <c r="M9" s="18" t="n">
+      <c r="J9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="18">
+        <v>91633.4</v>
+      </c>
+      <c r="L9" s="18">
+        <v>90249.142857142899</v>
+      </c>
+      <c r="M9" s="18">
         <v>88964.2</v>
       </c>
-      <c r="N9" s="18" t="n">
+      <c r="N9" s="18">
         <v>86206.2</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="15" t="inlineStr">
-        <is>
-          <t>Acceso Hermanos Machado (CV-30)</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>97449.1208333</v>
-      </c>
-      <c r="C10" s="22" t="n">
-        <v>94704.0476190476</v>
-      </c>
-      <c r="D10" s="13" t="n">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="13">
+        <v>97449.120833299996</v>
+      </c>
+      <c r="C10" s="22">
+        <v>94704.047619047604</v>
+      </c>
+      <c r="D10" s="13">
         <v>101602.2</v>
       </c>
-      <c r="E10" s="22" t="n">
-        <v>100012.565217391</v>
-      </c>
-      <c r="F10" s="22" t="n">
-        <v>94156.92857142859</v>
-      </c>
-      <c r="G10" s="22" t="n">
+      <c r="E10" s="22">
+        <v>100012.56521739101</v>
+      </c>
+      <c r="F10" s="22">
+        <v>94156.928571428594</v>
+      </c>
+      <c r="G10" s="22">
         <v>100809.409090909</v>
       </c>
-      <c r="H10" s="22" t="n">
+      <c r="H10" s="22">
         <v>102302.55</v>
       </c>
-      <c r="I10" s="22" t="n">
+      <c r="I10" s="22">
         <v>100708.095238095</v>
       </c>
-      <c r="J10" s="22" t="n">
-        <v>78954.0476190476</v>
-      </c>
-      <c r="K10" s="22" t="n">
-        <v>98840.5263157895</v>
-      </c>
-      <c r="L10" s="22" t="n">
+      <c r="J10" s="22">
+        <v>78954.047619047604</v>
+      </c>
+      <c r="K10" s="22">
+        <v>98840.526315789495</v>
+      </c>
+      <c r="L10" s="22">
         <v>101032.85</v>
       </c>
-      <c r="M10" s="22" t="n">
-        <v>98111.5238095238</v>
-      </c>
-      <c r="N10" s="22" t="n">
-        <v>97374.55555555561</v>
+      <c r="M10" s="22">
+        <v>98111.523809523802</v>
+      </c>
+      <c r="N10" s="22">
+        <v>97374.555555555606</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a intensidades de lunes a viernes de días laborables. (-) Sin datos.</t>
-        </is>
-      </c>
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="20" t="n"/>
-      <c r="D11" s="19" t="n"/>
-      <c r="E11" s="20" t="n"/>
-      <c r="F11" s="20" t="n"/>
-      <c r="G11" s="20" t="n"/>
-      <c r="H11" s="20" t="n"/>
-      <c r="I11" s="20" t="n"/>
-      <c r="J11" s="20" t="n"/>
-      <c r="K11" s="20" t="n"/>
-      <c r="L11" s="20" t="n"/>
-      <c r="M11" s="20" t="n"/>
-      <c r="N11" s="20" t="n"/>
-      <c r="O11" s="21" t="n"/>
-      <c r="P11" s="21" t="n"/>
-      <c r="Q11" s="21" t="n"/>
-      <c r="R11" s="21" t="n"/>
-      <c r="S11" s="21" t="n"/>
-      <c r="T11" s="21" t="n"/>
-      <c r="U11" s="21" t="n"/>
-      <c r="V11" s="21" t="n"/>
-      <c r="W11" s="21" t="n"/>
-      <c r="X11" s="21" t="n"/>
+    <row r="11" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
+    <row r="12" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="15" t="n"/>
-      <c r="B15" s="16" t="n"/>
-      <c r="C15" s="16" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="16" t="n"/>
-      <c r="F15" s="16" t="n"/>
-      <c r="G15" s="16" t="n"/>
-      <c r="H15" s="16" t="n"/>
-      <c r="I15" s="16" t="n"/>
-      <c r="J15" s="16" t="n"/>
-      <c r="K15" s="16" t="n"/>
-      <c r="L15" s="16" t="n"/>
-      <c r="M15" s="16" t="n"/>
-      <c r="N15" s="16" t="n"/>
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="52"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="37.140625" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" min="2" max="9"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>3. Intensidad media diaria en los accesos a la ciudad según día de la semana. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="1" t="n"/>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="1" t="n"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Vías</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Lunes laborable</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Martes laborable</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Miércoles laborable</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Jueves laborable</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Viernes laborable</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Festivos</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="n"/>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="15" t="inlineStr">
-        <is>
-          <t>Acceso Ausiàs March (V-31)</t>
-        </is>
-      </c>
-      <c r="B4" s="16" t="n">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="16">
         <v>107185.891304348</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="16">
         <v>107532.490196078</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="16">
         <v>108259.734693878</v>
       </c>
-      <c r="E4" s="16" t="n">
-        <v>108791.431372549</v>
-      </c>
-      <c r="F4" s="16" t="n">
+      <c r="E4" s="16">
+        <v>108791.43137254901</v>
+      </c>
+      <c r="F4" s="16">
         <v>111587.957446809</v>
       </c>
-      <c r="G4" s="16" t="n">
-        <v>90260.5294117647</v>
-      </c>
-      <c r="H4" s="16" t="n">
-        <v>74132.53999999999</v>
-      </c>
-      <c r="I4" s="16" t="n">
-        <v>71303.29411764711</v>
-      </c>
-      <c r="J4" s="1" t="n"/>
+      <c r="G4" s="16">
+        <v>90260.529411764699</v>
+      </c>
+      <c r="H4" s="16">
+        <v>74132.539999999994</v>
+      </c>
+      <c r="I4" s="16">
+        <v>71303.294117647107</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="17" t="inlineStr">
-        <is>
-          <t>Acceso Autopista del Saler (V-15)</t>
-        </is>
-      </c>
-      <c r="B5" s="18" t="n">
-        <v>32370.2666666667</v>
-      </c>
-      <c r="C5" s="18" t="n">
-        <v>32448.24</v>
-      </c>
-      <c r="D5" s="18" t="n">
-        <v>33304.387755102</v>
-      </c>
-      <c r="E5" s="18" t="n">
-        <v>33981.4901960784</v>
-      </c>
-      <c r="F5" s="18" t="n">
-        <v>36916.5652173913</v>
-      </c>
-      <c r="G5" s="18" t="n">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="18">
+        <v>32370.266666666699</v>
+      </c>
+      <c r="C5" s="18">
+        <v>32448.240000000002</v>
+      </c>
+      <c r="D5" s="18">
+        <v>33304.387755101998</v>
+      </c>
+      <c r="E5" s="18">
+        <v>33981.490196078397</v>
+      </c>
+      <c r="F5" s="18">
+        <v>36916.565217391297</v>
+      </c>
+      <c r="G5" s="18">
         <v>29303.56</v>
       </c>
-      <c r="H5" s="18" t="n">
-        <v>25027.7142857143</v>
-      </c>
-      <c r="I5" s="18" t="n">
+      <c r="H5" s="18">
+        <v>25027.714285714301</v>
+      </c>
+      <c r="I5" s="18">
         <v>23479.625</v>
       </c>
-      <c r="J5" s="1" t="n"/>
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>Acceso Av. Cataluña (V-21)</t>
-        </is>
-      </c>
-      <c r="B6" s="22" t="n">
-        <v>76970.347826087</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>76182.6862745098</v>
-      </c>
-      <c r="D6" s="22" t="n">
-        <v>77238.7959183674</v>
-      </c>
-      <c r="E6" s="22" t="n">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="22">
+        <v>76970.347826087003</v>
+      </c>
+      <c r="C6" s="13">
+        <v>76182.686274509804</v>
+      </c>
+      <c r="D6" s="22">
+        <v>77238.795918367396</v>
+      </c>
+      <c r="E6" s="22">
         <v>77850.92</v>
       </c>
-      <c r="F6" s="22" t="n">
-        <v>83430.2765957447</v>
-      </c>
-      <c r="G6" s="22" t="n">
-        <v>63804.0588235294</v>
-      </c>
-      <c r="H6" s="22" t="n">
+      <c r="F6" s="22">
+        <v>83430.276595744697</v>
+      </c>
+      <c r="G6" s="22">
+        <v>63804.058823529398</v>
+      </c>
+      <c r="H6" s="22">
         <v>56070.28</v>
       </c>
-      <c r="I6" s="22" t="n">
-        <v>54111.9411764706</v>
-      </c>
-      <c r="J6" s="1" t="n"/>
+      <c r="I6" s="22">
+        <v>54111.941176470602</v>
+      </c>
+      <c r="J6" s="1"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="17" t="inlineStr">
-        <is>
-          <t>Acceso Av. del Cid (A-3)</t>
-        </is>
-      </c>
-      <c r="B7" s="18" t="n">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="18">
         <v>106096.292682927</v>
       </c>
-      <c r="C7" s="18" t="n">
-        <v>105604.586956522</v>
-      </c>
-      <c r="D7" s="18" t="n">
-        <v>106138.622222222</v>
-      </c>
-      <c r="E7" s="18" t="n">
+      <c r="C7" s="18">
+        <v>105604.58695652201</v>
+      </c>
+      <c r="D7" s="18">
+        <v>106138.62222222199</v>
+      </c>
+      <c r="E7" s="18">
         <v>105944.021276596</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="18">
         <v>110587.204545455</v>
       </c>
-      <c r="G7" s="18" t="n">
-        <v>76398.4347826087</v>
-      </c>
-      <c r="H7" s="18" t="n">
-        <v>64047.6382978723</v>
-      </c>
-      <c r="I7" s="18" t="n">
-        <v>63634.4285714286</v>
-      </c>
-      <c r="J7" s="1" t="n"/>
+      <c r="G7" s="18">
+        <v>76398.434782608703</v>
+      </c>
+      <c r="H7" s="18">
+        <v>64047.638297872298</v>
+      </c>
+      <c r="I7" s="18">
+        <v>63634.428571428602</v>
+      </c>
+      <c r="J7" s="1"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="15" t="inlineStr">
-        <is>
-          <t>Acceso Camino Nuevo de Picanya (CV-36)</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
-        <v>78163.2222222222</v>
-      </c>
-      <c r="C8" s="16" t="n">
-        <v>79590.4705882353</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>80181.0416666667</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>79415.82352941181</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>81948.31914893621</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>53424.693877551</v>
-      </c>
-      <c r="H8" s="16" t="n">
-        <v>41737.8367346939</v>
-      </c>
-      <c r="I8" s="16" t="n">
-        <v>41724.9411764706</v>
-      </c>
-      <c r="J8" s="1" t="n"/>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="16">
+        <v>78163.222222222204</v>
+      </c>
+      <c r="C8" s="16">
+        <v>79590.470588235301</v>
+      </c>
+      <c r="D8" s="16">
+        <v>80181.041666666701</v>
+      </c>
+      <c r="E8" s="16">
+        <v>79415.823529411806</v>
+      </c>
+      <c r="F8" s="16">
+        <v>81948.319148936207</v>
+      </c>
+      <c r="G8" s="16">
+        <v>53424.693877550999</v>
+      </c>
+      <c r="H8" s="16">
+        <v>41737.836734693898</v>
+      </c>
+      <c r="I8" s="16">
+        <v>41724.941176470602</v>
+      </c>
+      <c r="J8" s="1"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="17" t="inlineStr">
-        <is>
-          <t>Acceso Corts Valencianes (CV-35)</t>
-        </is>
-      </c>
-      <c r="B9" s="18" t="n">
-        <v>85940.72413793103</v>
-      </c>
-      <c r="C9" s="18" t="n">
-        <v>86882.32352941181</v>
-      </c>
-      <c r="D9" s="18" t="n">
-        <v>87350.4848484848</v>
-      </c>
-      <c r="E9" s="18" t="n">
-        <v>86973.6666666667</v>
-      </c>
-      <c r="F9" s="18" t="n">
-        <v>90716.2068965517</v>
-      </c>
-      <c r="G9" s="18" t="n">
-        <v>65229.3235294118</v>
-      </c>
-      <c r="H9" s="18" t="n">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="18">
+        <v>85940.724137931029</v>
+      </c>
+      <c r="C9" s="18">
+        <v>86882.323529411806</v>
+      </c>
+      <c r="D9" s="18">
+        <v>87350.484848484804</v>
+      </c>
+      <c r="E9" s="18">
+        <v>86973.666666666701</v>
+      </c>
+      <c r="F9" s="18">
+        <v>90716.206896551696</v>
+      </c>
+      <c r="G9" s="18">
+        <v>65229.323529411799</v>
+      </c>
+      <c r="H9" s="18">
         <v>49317.7419354839</v>
       </c>
-      <c r="I9" s="18" t="n">
-        <v>48112.4615384615</v>
-      </c>
-      <c r="J9" s="1" t="n"/>
+      <c r="I9" s="18">
+        <v>48112.461538461503</v>
+      </c>
+      <c r="J9" s="1"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="15" t="inlineStr">
-        <is>
-          <t>Acceso Hermanos Machado (CV-30)</t>
-        </is>
-      </c>
-      <c r="B10" s="22" t="n">
-        <v>95604.63043478259</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>96267.76470588231</v>
-      </c>
-      <c r="D10" s="22" t="n">
-        <v>97004.652173913</v>
-      </c>
-      <c r="E10" s="22" t="n">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="22">
+        <v>95604.630434782594</v>
+      </c>
+      <c r="C10" s="13">
+        <v>96267.764705882306</v>
+      </c>
+      <c r="D10" s="22">
+        <v>97004.652173912997</v>
+      </c>
+      <c r="E10" s="22">
         <v>96926.62</v>
       </c>
-      <c r="F10" s="22" t="n">
-        <v>101527.127659574</v>
-      </c>
-      <c r="G10" s="22" t="n">
-        <v>73688.6470588235</v>
-      </c>
-      <c r="H10" s="22" t="n">
+      <c r="F10" s="22">
+        <v>101527.12765957401</v>
+      </c>
+      <c r="G10" s="22">
+        <v>73688.647058823495</v>
+      </c>
+      <c r="H10" s="22">
         <v>63630.2</v>
       </c>
-      <c r="I10" s="22" t="n">
-        <v>60892.1764705882</v>
-      </c>
-      <c r="J10" s="1" t="n"/>
+      <c r="I10" s="22">
+        <v>60892.176470588201</v>
+      </c>
+      <c r="J10" s="1"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="J11" s="1" t="n"/>
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="15" t="n"/>
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="16" t="n"/>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="16" t="n"/>
-      <c r="F14" s="16" t="n"/>
-      <c r="G14" s="16" t="n"/>
-      <c r="H14" s="16" t="n"/>
-      <c r="I14" s="16" t="n"/>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="75"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="60.7109375" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" min="2" max="14"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="14" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>4. Intensidad media diaria en los tramos con mayor intensidad de la red viaria según mes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="7" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
-      <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n"/>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="n"/>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Descripción de la Vía</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>IMD Anual</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
+    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="24" t="inlineStr">
-        <is>
-          <t>CORTES VALENCIANAS (entre Camp del Turia y La Safor)</t>
-        </is>
-      </c>
-      <c r="B4" s="27" t="n">
-        <v>74257.77178423236</v>
-      </c>
-      <c r="C4" s="27" t="n">
-        <v>75863.57142857143</v>
-      </c>
-      <c r="D4" s="27" t="n">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="27">
+        <v>74257.771784232362</v>
+      </c>
+      <c r="C4" s="27">
+        <v>75863.571428571435</v>
+      </c>
+      <c r="D4" s="27">
         <v>77997.25</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="27">
         <v>75378.65217391304</v>
       </c>
-      <c r="F4" s="27" t="n">
+      <c r="F4" s="27">
         <v>77572.28571428571</v>
       </c>
-      <c r="G4" s="27" t="n">
-        <v>78666.13636363637</v>
-      </c>
-      <c r="H4" s="27" t="n">
-        <v>79426.14285714286</v>
-      </c>
-      <c r="I4" s="27" t="n">
-        <v>71105.42857142857</v>
-      </c>
-      <c r="J4" s="27" t="n">
+      <c r="G4" s="27">
+        <v>78666.136363636368</v>
+      </c>
+      <c r="H4" s="27">
+        <v>79426.142857142855</v>
+      </c>
+      <c r="I4" s="27">
+        <v>71105.428571428565</v>
+      </c>
+      <c r="J4" s="27">
         <v>50936.15789473684</v>
       </c>
-      <c r="K4" s="27" t="n">
+      <c r="K4" s="27">
         <v>68638</v>
       </c>
-      <c r="L4" s="27" t="n">
+      <c r="L4" s="27">
         <v>73161.5</v>
       </c>
-      <c r="M4" s="27" t="n">
-        <v>80934.33333333333</v>
-      </c>
-      <c r="N4" s="27" t="n">
-        <v>81081.55555555556</v>
-      </c>
-      <c r="O4" s="29" t="n"/>
+      <c r="M4" s="27">
+        <v>80934.333333333328</v>
+      </c>
+      <c r="N4" s="27">
+        <v>81081.555555555562</v>
+      </c>
+      <c r="O4" s="29"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="25" t="inlineStr">
-        <is>
-          <t>AUSIAS MARCH (entre Fernando Abril Martorell y Hermanos Maristas)</t>
-        </is>
-      </c>
-      <c r="B5" s="26" t="n">
-        <v>70689.8248971194</v>
-      </c>
-      <c r="C5" s="26" t="n">
-        <v>69575.31666666669</v>
-      </c>
-      <c r="D5" s="26" t="n">
-        <v>70937.6525</v>
-      </c>
-      <c r="E5" s="26" t="n">
-        <v>70023.78478260869</v>
-      </c>
-      <c r="F5" s="26" t="n">
-        <v>72394.9928571428</v>
-      </c>
-      <c r="G5" s="26" t="n">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="26">
+        <v>70689.824897119397</v>
+      </c>
+      <c r="C5" s="26">
+        <v>69575.316666666695</v>
+      </c>
+      <c r="D5" s="26">
+        <v>70937.652499999997</v>
+      </c>
+      <c r="E5" s="26">
+        <v>70023.784782608695</v>
+      </c>
+      <c r="F5" s="26">
+        <v>72394.992857142803</v>
+      </c>
+      <c r="G5" s="26">
         <v>72044.4363636364</v>
       </c>
-      <c r="H5" s="26" t="n">
-        <v>72899.9785714286</v>
-      </c>
-      <c r="I5" s="26" t="n">
+      <c r="H5" s="26">
+        <v>72899.978571428597</v>
+      </c>
+      <c r="I5" s="26">
         <v>72184.6690476191</v>
       </c>
-      <c r="J5" s="26" t="n">
-        <v>60451.0333333333</v>
-      </c>
-      <c r="K5" s="26" t="n">
-        <v>72294.0880952381</v>
-      </c>
-      <c r="L5" s="26" t="n">
-        <v>72072.91250000001</v>
-      </c>
-      <c r="M5" s="26" t="n">
-        <v>71964.3571428572</v>
-      </c>
-      <c r="N5" s="26" t="n">
+      <c r="J5" s="26">
+        <v>60451.033333333296</v>
+      </c>
+      <c r="K5" s="26">
+        <v>72294.088095238098</v>
+      </c>
+      <c r="L5" s="26">
+        <v>72072.912500000006</v>
+      </c>
+      <c r="M5" s="26">
+        <v>71964.357142857203</v>
+      </c>
+      <c r="N5" s="26">
         <v>72311.2944444444</v>
       </c>
-      <c r="O5" s="30" t="n"/>
-      <c r="P5" s="1" t="n"/>
-      <c r="R5" s="1" t="n"/>
-      <c r="S5" s="1" t="n"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="24" t="inlineStr">
-        <is>
-          <t>PUENTE NUEVE de OCTUBRE (entre Pechina y Manuel de Falla)</t>
-        </is>
-      </c>
-      <c r="B6" s="27" t="n">
-        <v>64571.03734439834</v>
-      </c>
-      <c r="C6" s="27" t="n">
-        <v>63706.95238095238</v>
-      </c>
-      <c r="D6" s="27" t="n">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="27">
+        <v>64571.037344398341</v>
+      </c>
+      <c r="C6" s="27">
+        <v>63706.952380952382</v>
+      </c>
+      <c r="D6" s="27">
         <v>65073.3</v>
       </c>
-      <c r="E6" s="27" t="n">
-        <v>63853.27272727273</v>
-      </c>
-      <c r="F6" s="27" t="n">
-        <v>65479.85714285714</v>
-      </c>
-      <c r="G6" s="27" t="n">
-        <v>66085.22727272728</v>
-      </c>
-      <c r="H6" s="27" t="n">
-        <v>66154.80952380953</v>
-      </c>
-      <c r="I6" s="27" t="n">
-        <v>63825.90476190476</v>
-      </c>
-      <c r="J6" s="27" t="n">
+      <c r="E6" s="27">
+        <v>63853.272727272728</v>
+      </c>
+      <c r="F6" s="27">
+        <v>65479.857142857145</v>
+      </c>
+      <c r="G6" s="27">
+        <v>66085.227272727279</v>
+      </c>
+      <c r="H6" s="27">
+        <v>66154.809523809527</v>
+      </c>
+      <c r="I6" s="27">
+        <v>63825.904761904763</v>
+      </c>
+      <c r="J6" s="27">
         <v>53313.85</v>
       </c>
-      <c r="K6" s="27" t="n">
+      <c r="K6" s="27">
         <v>66879.28571428571</v>
       </c>
-      <c r="L6" s="27" t="n">
+      <c r="L6" s="27">
         <v>67162.75</v>
       </c>
-      <c r="M6" s="27" t="n">
-        <v>66857.04761904762</v>
-      </c>
-      <c r="N6" s="27" t="n">
-        <v>66630.72222222222</v>
-      </c>
-      <c r="O6" s="30" t="n"/>
-      <c r="P6" s="1" t="n"/>
-      <c r="R6" s="1" t="n"/>
-      <c r="S6" s="1" t="n"/>
+      <c r="M6" s="27">
+        <v>66857.047619047618</v>
+      </c>
+      <c r="N6" s="27">
+        <v>66630.722222222219</v>
+      </c>
+      <c r="O6" s="30"/>
+      <c r="P6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="25" t="inlineStr">
-        <is>
-          <t>TRES CRUCES (entre Av. del Cid y Tres Forques)</t>
-        </is>
-      </c>
-      <c r="B7" s="26" t="n">
-        <v>61217.87242798354</v>
-      </c>
-      <c r="C7" s="26" t="n">
-        <v>60744.38095238095</v>
-      </c>
-      <c r="D7" s="26" t="n">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="26">
+        <v>61217.872427983537</v>
+      </c>
+      <c r="C7" s="26">
+        <v>60744.380952380954</v>
+      </c>
+      <c r="D7" s="26">
         <v>62799.75</v>
       </c>
-      <c r="E7" s="26" t="n">
-        <v>61727.78260869566</v>
-      </c>
-      <c r="F7" s="26" t="n">
-        <v>63229.71428571428</v>
-      </c>
-      <c r="G7" s="26" t="n">
-        <v>64449.90909090909</v>
-      </c>
-      <c r="H7" s="26" t="n">
-        <v>64094.14285714286</v>
-      </c>
-      <c r="I7" s="26" t="n">
-        <v>60051.14285714286</v>
-      </c>
-      <c r="J7" s="26" t="n">
-        <v>47750.80952380953</v>
-      </c>
-      <c r="K7" s="26" t="n">
+      <c r="E7" s="26">
+        <v>61727.782608695656</v>
+      </c>
+      <c r="F7" s="26">
+        <v>63229.714285714283</v>
+      </c>
+      <c r="G7" s="26">
+        <v>64449.909090909088</v>
+      </c>
+      <c r="H7" s="26">
+        <v>64094.142857142855</v>
+      </c>
+      <c r="I7" s="26">
+        <v>60051.142857142855</v>
+      </c>
+      <c r="J7" s="26">
+        <v>47750.809523809527</v>
+      </c>
+      <c r="K7" s="26">
         <v>62837</v>
       </c>
-      <c r="L7" s="26" t="n">
+      <c r="L7" s="26">
         <v>64407.4</v>
       </c>
-      <c r="M7" s="26" t="n">
-        <v>62864.90476190476</v>
-      </c>
-      <c r="N7" s="26" t="n">
-        <v>60208.72222222222</v>
-      </c>
-      <c r="O7" s="30" t="n"/>
-      <c r="P7" s="1" t="n"/>
-      <c r="R7" s="1" t="n"/>
-      <c r="S7" s="1" t="n"/>
+      <c r="M7" s="26">
+        <v>62864.904761904763</v>
+      </c>
+      <c r="N7" s="26">
+        <v>60208.722222222219</v>
+      </c>
+      <c r="O7" s="30"/>
+      <c r="P7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="24" t="inlineStr">
-        <is>
-          <t>MARQUES del TURIA (entre Puente Aragón y Hernán Cortés)</t>
-        </is>
-      </c>
-      <c r="B8" s="27" t="n">
-        <v>58593.90946502057</v>
-      </c>
-      <c r="C8" s="27" t="n">
-        <v>56282.61904761905</v>
-      </c>
-      <c r="D8" s="27" t="n">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="27">
+        <v>58593.909465020573</v>
+      </c>
+      <c r="C8" s="27">
+        <v>56282.619047619046</v>
+      </c>
+      <c r="D8" s="27">
         <v>58547.25</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="27">
         <v>57486.34782608696</v>
       </c>
-      <c r="F8" s="27" t="n">
+      <c r="F8" s="27">
         <v>58981.5</v>
       </c>
-      <c r="G8" s="27" t="n">
-        <v>60464.72727272727</v>
-      </c>
-      <c r="H8" s="27" t="n">
-        <v>61577.85714285714</v>
-      </c>
-      <c r="I8" s="27" t="n">
-        <v>61192.61904761905</v>
-      </c>
-      <c r="J8" s="27" t="n">
-        <v>46973.52380952381</v>
-      </c>
-      <c r="K8" s="27" t="n">
-        <v>59594.28571428572</v>
-      </c>
-      <c r="L8" s="27" t="n">
+      <c r="G8" s="27">
+        <v>60464.727272727272</v>
+      </c>
+      <c r="H8" s="27">
+        <v>61577.857142857145</v>
+      </c>
+      <c r="I8" s="27">
+        <v>61192.619047619046</v>
+      </c>
+      <c r="J8" s="27">
+        <v>46973.523809523809</v>
+      </c>
+      <c r="K8" s="27">
+        <v>59594.285714285717</v>
+      </c>
+      <c r="L8" s="27">
         <v>61508.15</v>
       </c>
-      <c r="M8" s="27" t="n">
-        <v>61150.09523809524</v>
-      </c>
-      <c r="N8" s="27" t="n">
-        <v>59826.11111111111</v>
-      </c>
-      <c r="O8" s="30" t="n"/>
-      <c r="P8" s="1" t="n"/>
-      <c r="R8" s="1" t="n"/>
-      <c r="S8" s="1" t="n"/>
+      <c r="M8" s="27">
+        <v>61150.095238095237</v>
+      </c>
+      <c r="N8" s="27">
+        <v>59826.111111111109</v>
+      </c>
+      <c r="O8" s="30"/>
+      <c r="P8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="25" t="inlineStr">
-        <is>
-          <t>RONDA NORTE (entre Av. Cataluña y Emilio Baró)</t>
-        </is>
-      </c>
-      <c r="B9" s="26" t="n">
-        <v>58040.0125</v>
-      </c>
-      <c r="C9" s="26" t="n">
-        <v>54001.80952380953</v>
-      </c>
-      <c r="D9" s="26" t="n">
-        <v>58860.8</v>
-      </c>
-      <c r="E9" s="26" t="n">
-        <v>60077.86956521739</v>
-      </c>
-      <c r="F9" s="26" t="n">
-        <v>60628.42857142857</v>
-      </c>
-      <c r="G9" s="26" t="n">
-        <v>61491.77272727273</v>
-      </c>
-      <c r="H9" s="26" t="n">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="26">
+        <v>58040.012499999997</v>
+      </c>
+      <c r="C9" s="26">
+        <v>54001.809523809527</v>
+      </c>
+      <c r="D9" s="26">
+        <v>58860.800000000003</v>
+      </c>
+      <c r="E9" s="26">
+        <v>60077.869565217392</v>
+      </c>
+      <c r="F9" s="26">
+        <v>60628.428571428572</v>
+      </c>
+      <c r="G9" s="26">
+        <v>61491.772727272728</v>
+      </c>
+      <c r="H9" s="26">
         <v>61314.45</v>
       </c>
-      <c r="I9" s="26" t="n">
-        <v>59933.28571428572</v>
-      </c>
-      <c r="J9" s="26" t="n">
-        <v>45173.19047619047</v>
-      </c>
-      <c r="K9" s="26" t="n">
-        <v>58984.95238095238</v>
-      </c>
-      <c r="L9" s="26" t="n">
+      <c r="I9" s="26">
+        <v>59933.285714285717</v>
+      </c>
+      <c r="J9" s="26">
+        <v>45173.190476190473</v>
+      </c>
+      <c r="K9" s="26">
+        <v>58984.952380952382</v>
+      </c>
+      <c r="L9" s="26">
         <v>60191.5</v>
       </c>
-      <c r="M9" s="26" t="n">
+      <c r="M9" s="26">
         <v>59978.15789473684</v>
       </c>
-      <c r="N9" s="26" t="n">
-        <v>56628.72222222222</v>
-      </c>
-      <c r="O9" s="30" t="n"/>
-      <c r="P9" s="1" t="n"/>
-      <c r="R9" s="1" t="n"/>
-      <c r="S9" s="1" t="n"/>
+      <c r="N9" s="26">
+        <v>56628.722222222219</v>
+      </c>
+      <c r="O9" s="30"/>
+      <c r="P9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="24" t="inlineStr">
-        <is>
-          <t>GIORGETA (entre San Vicente Mártir y Jesús)</t>
-        </is>
-      </c>
-      <c r="B10" s="27" t="n">
-        <v>55195.87878787878</v>
-      </c>
-      <c r="C10" s="27" t="n">
-        <v>56111.33333333334</v>
-      </c>
-      <c r="D10" s="27" t="n">
-        <v>53593.83333333334</v>
-      </c>
-      <c r="E10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O10" s="30" t="n"/>
-      <c r="P10" s="1" t="n"/>
-      <c r="R10" s="1" t="n"/>
-      <c r="S10" s="1" t="n"/>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="27">
+        <v>55195.878787878784</v>
+      </c>
+      <c r="C10" s="27">
+        <v>56111.333333333336</v>
+      </c>
+      <c r="D10" s="27">
+        <v>53593.833333333336</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="25" t="inlineStr">
-        <is>
-          <t>P.E. GIORGETA (entre San Vicente y Ausias March)</t>
-        </is>
-      </c>
-      <c r="B11" s="26" t="n">
-        <v>55187.42798353909</v>
-      </c>
-      <c r="C11" s="26" t="n">
-        <v>56205.33333333334</v>
-      </c>
-      <c r="D11" s="26" t="n">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="26">
+        <v>55187.427983539092</v>
+      </c>
+      <c r="C11" s="26">
+        <v>56205.333333333336</v>
+      </c>
+      <c r="D11" s="26">
         <v>56701.05</v>
       </c>
-      <c r="E11" s="26" t="n">
-        <v>54822.26086956522</v>
-      </c>
-      <c r="F11" s="26" t="n">
+      <c r="E11" s="26">
+        <v>54822.260869565216</v>
+      </c>
+      <c r="F11" s="26">
         <v>54483</v>
       </c>
-      <c r="G11" s="26" t="n">
+      <c r="G11" s="26">
         <v>55765.86363636364</v>
       </c>
-      <c r="H11" s="26" t="n">
-        <v>56996.61904761905</v>
-      </c>
-      <c r="I11" s="26" t="n">
-        <v>55500.28571428572</v>
-      </c>
-      <c r="J11" s="26" t="n">
-        <v>43029.19047619047</v>
-      </c>
-      <c r="K11" s="26" t="n">
-        <v>56311.61904761905</v>
-      </c>
-      <c r="L11" s="26" t="n">
-        <v>57487.2</v>
-      </c>
-      <c r="M11" s="26" t="n">
-        <v>57481.61904761905</v>
-      </c>
-      <c r="N11" s="26" t="n">
-        <v>57791.05555555555</v>
-      </c>
-      <c r="O11" s="30" t="n"/>
-      <c r="P11" s="1" t="n"/>
-      <c r="R11" s="1" t="n"/>
-      <c r="S11" s="1" t="n"/>
+      <c r="H11" s="26">
+        <v>56996.619047619046</v>
+      </c>
+      <c r="I11" s="26">
+        <v>55500.285714285717</v>
+      </c>
+      <c r="J11" s="26">
+        <v>43029.190476190473</v>
+      </c>
+      <c r="K11" s="26">
+        <v>56311.619047619046</v>
+      </c>
+      <c r="L11" s="26">
+        <v>57487.199999999997</v>
+      </c>
+      <c r="M11" s="26">
+        <v>57481.619047619046</v>
+      </c>
+      <c r="N11" s="26">
+        <v>57791.055555555555</v>
+      </c>
+      <c r="O11" s="30"/>
+      <c r="P11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="24" t="inlineStr">
-        <is>
-          <t>GERMANIAS (entre Ruzafa y Túnel)</t>
-        </is>
-      </c>
-      <c r="B12" s="27" t="n">
-        <v>53223.06172839506</v>
-      </c>
-      <c r="C12" s="27" t="n">
-        <v>40491.52380952381</v>
-      </c>
-      <c r="D12" s="27" t="n">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="27">
+        <v>53223.061728395063</v>
+      </c>
+      <c r="C12" s="27">
+        <v>40491.523809523809</v>
+      </c>
+      <c r="D12" s="27">
         <v>41579.25</v>
       </c>
-      <c r="E12" s="27" t="n">
-        <v>49180.60869565218</v>
-      </c>
-      <c r="F12" s="27" t="n">
-        <v>57723.42857142857</v>
-      </c>
-      <c r="G12" s="27" t="n">
-        <v>58505.45454545454</v>
-      </c>
-      <c r="H12" s="27" t="n">
-        <v>58145.33333333334</v>
-      </c>
-      <c r="I12" s="27" t="n">
+      <c r="E12" s="27">
+        <v>49180.608695652176</v>
+      </c>
+      <c r="F12" s="27">
+        <v>57723.428571428572</v>
+      </c>
+      <c r="G12" s="27">
+        <v>58505.454545454544</v>
+      </c>
+      <c r="H12" s="27">
+        <v>58145.333333333336</v>
+      </c>
+      <c r="I12" s="27">
         <v>57664</v>
       </c>
-      <c r="J12" s="27" t="n">
-        <v>44670.19047619047</v>
-      </c>
-      <c r="K12" s="27" t="n">
-        <v>57657.23809523809</v>
-      </c>
-      <c r="L12" s="27" t="n">
+      <c r="J12" s="27">
+        <v>44670.190476190473</v>
+      </c>
+      <c r="K12" s="27">
+        <v>57657.238095238092</v>
+      </c>
+      <c r="L12" s="27">
         <v>58219.75</v>
       </c>
-      <c r="M12" s="27" t="n">
-        <v>58105.14285714286</v>
-      </c>
-      <c r="N12" s="27" t="n">
-        <v>58856.66666666666</v>
-      </c>
-      <c r="O12" s="30" t="n"/>
-      <c r="P12" s="1" t="n"/>
-      <c r="R12" s="1" t="n"/>
-      <c r="S12" s="1" t="n"/>
+      <c r="M12" s="27">
+        <v>58105.142857142855</v>
+      </c>
+      <c r="N12" s="27">
+        <v>58856.666666666664</v>
+      </c>
+      <c r="O12" s="30"/>
+      <c r="P12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="25" t="inlineStr">
-        <is>
-          <t>RAMON Y CAJAL (entre Pl. España y Ángel Guimerá)</t>
-        </is>
-      </c>
-      <c r="B13" s="26" t="n">
-        <v>53104.27800829875</v>
-      </c>
-      <c r="C13" s="26" t="n">
-        <v>52350.38095238095</v>
-      </c>
-      <c r="D13" s="26" t="n">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="26">
+        <v>53104.278008298752</v>
+      </c>
+      <c r="C13" s="26">
+        <v>52350.380952380954</v>
+      </c>
+      <c r="D13" s="26">
         <v>54200.65</v>
       </c>
-      <c r="E13" s="26" t="n">
-        <v>53502.73913043478</v>
-      </c>
-      <c r="F13" s="26" t="n">
-        <v>53953.07142857143</v>
-      </c>
-      <c r="G13" s="26" t="n">
+      <c r="E13" s="26">
+        <v>53502.739130434784</v>
+      </c>
+      <c r="F13" s="26">
+        <v>53953.071428571428</v>
+      </c>
+      <c r="G13" s="26">
         <v>54202.63636363636</v>
       </c>
-      <c r="H13" s="26" t="n">
-        <v>54821.52631578947</v>
-      </c>
-      <c r="I13" s="26" t="n">
+      <c r="H13" s="26">
+        <v>54821.526315789473</v>
+      </c>
+      <c r="I13" s="26">
         <v>52889</v>
       </c>
-      <c r="J13" s="26" t="n">
-        <v>40961.66666666666</v>
-      </c>
-      <c r="K13" s="26" t="n">
-        <v>54941.09523809524</v>
-      </c>
-      <c r="L13" s="26" t="n">
+      <c r="J13" s="26">
+        <v>40961.666666666664</v>
+      </c>
+      <c r="K13" s="26">
+        <v>54941.095238095237</v>
+      </c>
+      <c r="L13" s="26">
         <v>55111.3</v>
       </c>
-      <c r="M13" s="26" t="n">
-        <v>55593.28571428572</v>
-      </c>
-      <c r="N13" s="26" t="n">
-        <v>55581.94444444445</v>
-      </c>
-      <c r="O13" s="30" t="n"/>
-      <c r="P13" s="1" t="n"/>
-      <c r="R13" s="1" t="n"/>
-      <c r="S13" s="1" t="n"/>
+      <c r="M13" s="26">
+        <v>55593.285714285717</v>
+      </c>
+      <c r="N13" s="26">
+        <v>55581.944444444445</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="24" t="inlineStr">
-        <is>
-          <t>Av. de ARAGON (entre Pl. Zaragoza y Ernesto Ferrer)</t>
-        </is>
-      </c>
-      <c r="B14" s="27" t="n">
-        <v>52027.3004115226</v>
-      </c>
-      <c r="C14" s="27" t="n">
-        <v>50263.8095238095</v>
-      </c>
-      <c r="D14" s="27" t="n">
-        <v>51833.225</v>
-      </c>
-      <c r="E14" s="27" t="n">
-        <v>51152.847826087</v>
-      </c>
-      <c r="F14" s="27" t="n">
-        <v>52462.7857142857</v>
-      </c>
-      <c r="G14" s="27" t="n">
-        <v>52987.5681818182</v>
-      </c>
-      <c r="H14" s="27" t="n">
-        <v>53759.8333333333</v>
-      </c>
-      <c r="I14" s="27" t="n">
-        <v>54752.4285714286</v>
-      </c>
-      <c r="J14" s="27" t="n">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="27">
+        <v>52027.300411522599</v>
+      </c>
+      <c r="C14" s="27">
+        <v>50263.809523809497</v>
+      </c>
+      <c r="D14" s="27">
+        <v>51833.224999999999</v>
+      </c>
+      <c r="E14" s="27">
+        <v>51152.847826087003</v>
+      </c>
+      <c r="F14" s="27">
+        <v>52462.785714285703</v>
+      </c>
+      <c r="G14" s="27">
+        <v>52987.568181818198</v>
+      </c>
+      <c r="H14" s="27">
+        <v>53759.833333333299</v>
+      </c>
+      <c r="I14" s="27">
+        <v>54752.428571428602</v>
+      </c>
+      <c r="J14" s="27">
         <v>42427.0952380952</v>
       </c>
-      <c r="K14" s="27" t="n">
-        <v>53410.6666666667</v>
-      </c>
-      <c r="L14" s="27" t="n">
+      <c r="K14" s="27">
+        <v>53410.666666666701</v>
+      </c>
+      <c r="L14" s="27">
         <v>53759.6</v>
       </c>
-      <c r="M14" s="27" t="n">
-        <v>54328.619047619</v>
-      </c>
-      <c r="N14" s="27" t="n">
-        <v>53681.3888888889</v>
-      </c>
-      <c r="O14" s="30" t="n"/>
-      <c r="P14" s="1" t="n"/>
-      <c r="R14" s="1" t="n"/>
-      <c r="S14" s="1" t="n"/>
+      <c r="M14" s="27">
+        <v>54328.619047619002</v>
+      </c>
+      <c r="N14" s="27">
+        <v>53681.388888888898</v>
+      </c>
+      <c r="O14" s="30"/>
+      <c r="P14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="25" t="inlineStr">
-        <is>
-          <t>PEREZ GALDOS (entre Ángel Guimerá y Paseo Pechina)</t>
-        </is>
-      </c>
-      <c r="B15" s="26" t="n">
-        <v>51776.75531914894</v>
-      </c>
-      <c r="C15" s="26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" s="26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="26" t="n">
-        <v>52896.8</v>
-      </c>
-      <c r="F15" s="26" t="n">
-        <v>52170.85714285714</v>
-      </c>
-      <c r="G15" s="26" t="n">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="26">
+        <v>51776.755319148935</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="26">
+        <v>52896.800000000003</v>
+      </c>
+      <c r="F15" s="26">
+        <v>52170.857142857145</v>
+      </c>
+      <c r="G15" s="26">
         <v>53112.86363636364</v>
       </c>
-      <c r="H15" s="26" t="n">
+      <c r="H15" s="26">
         <v>53407.3</v>
       </c>
-      <c r="I15" s="26" t="n">
-        <v>49509.33333333334</v>
-      </c>
-      <c r="J15" s="26" t="n">
-        <v>38444.09523809524</v>
-      </c>
-      <c r="K15" s="26" t="n">
-        <v>53956.80952380953</v>
-      </c>
-      <c r="L15" s="26" t="n">
+      <c r="I15" s="26">
+        <v>49509.333333333336</v>
+      </c>
+      <c r="J15" s="26">
+        <v>38444.095238095237</v>
+      </c>
+      <c r="K15" s="26">
+        <v>53956.809523809527</v>
+      </c>
+      <c r="L15" s="26">
         <v>54420.25</v>
       </c>
-      <c r="M15" s="26" t="n">
-        <v>57294.14285714286</v>
-      </c>
-      <c r="N15" s="26" t="n">
-        <v>53685.77777777778</v>
-      </c>
-      <c r="O15" s="30" t="n"/>
-      <c r="P15" s="1" t="n"/>
-      <c r="R15" s="1" t="n"/>
-      <c r="S15" s="1" t="n"/>
+      <c r="M15" s="26">
+        <v>57294.142857142855</v>
+      </c>
+      <c r="N15" s="26">
+        <v>53685.777777777781</v>
+      </c>
+      <c r="O15" s="30"/>
+      <c r="P15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="24" t="inlineStr">
-        <is>
-          <t>TRES CRUCES (entre Tres Forques y Archiduque Carlos)</t>
-        </is>
-      </c>
-      <c r="B16" s="27" t="n">
-        <v>50202.96894409938</v>
-      </c>
-      <c r="C16" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="27" t="n">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="27">
+        <v>50202.968944099382</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="27">
         <v>54968.875</v>
       </c>
-      <c r="G16" s="27" t="n">
+      <c r="G16" s="27">
         <v>54241.9</v>
       </c>
-      <c r="H16" s="27" t="n">
-        <v>52448.61904761905</v>
-      </c>
-      <c r="I16" s="27" t="n">
-        <v>46856.04761904762</v>
-      </c>
-      <c r="J16" s="27" t="n">
-        <v>35930.36842105263</v>
-      </c>
-      <c r="K16" s="27" t="n">
-        <v>51520.90476190476</v>
-      </c>
-      <c r="L16" s="27" t="n">
+      <c r="H16" s="27">
+        <v>52448.619047619046</v>
+      </c>
+      <c r="I16" s="27">
+        <v>46856.047619047618</v>
+      </c>
+      <c r="J16" s="27">
+        <v>35930.368421052633</v>
+      </c>
+      <c r="K16" s="27">
+        <v>51520.904761904763</v>
+      </c>
+      <c r="L16" s="27">
         <v>54654.23529411765</v>
       </c>
-      <c r="M16" s="27" t="n">
-        <v>53129.6</v>
-      </c>
-      <c r="N16" s="27" t="n">
-        <v>51168.64285714286</v>
-      </c>
-      <c r="O16" s="30" t="n"/>
-      <c r="P16" s="1" t="n"/>
-      <c r="R16" s="1" t="n"/>
-      <c r="S16" s="1" t="n"/>
+      <c r="M16" s="27">
+        <v>53129.599999999999</v>
+      </c>
+      <c r="N16" s="27">
+        <v>51168.642857142855</v>
+      </c>
+      <c r="O16" s="30"/>
+      <c r="P16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="25" t="inlineStr">
-        <is>
-          <t>DOCTOR PESET ALEIXANDRE (entre Av. Burjasot y Juan XXIII)</t>
-        </is>
-      </c>
-      <c r="B17" s="26" t="n">
-        <v>49527.20689655173</v>
-      </c>
-      <c r="C17" s="26" t="n">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="26">
+        <v>49527.206896551732</v>
+      </c>
+      <c r="C17" s="26">
         <v>51351.2215</v>
       </c>
-      <c r="D17" s="26" t="n">
-        <v>51391.15900000001</v>
-      </c>
-      <c r="E17" s="26" t="n">
-        <v>45906.49444444446</v>
-      </c>
-      <c r="F17" s="26" t="n">
-        <v>50313.23583333333</v>
-      </c>
-      <c r="G17" s="26" t="n">
-        <v>53208.5518181818</v>
-      </c>
-      <c r="H17" s="26" t="n">
-        <v>52966.65904761905</v>
-      </c>
-      <c r="I17" s="26" t="n">
+      <c r="D17" s="26">
+        <v>51391.159000000007</v>
+      </c>
+      <c r="E17" s="26">
+        <v>45906.494444444455</v>
+      </c>
+      <c r="F17" s="26">
+        <v>50313.235833333332</v>
+      </c>
+      <c r="G17" s="26">
+        <v>53208.551818181804</v>
+      </c>
+      <c r="H17" s="26">
+        <v>52966.659047619054</v>
+      </c>
+      <c r="I17" s="26">
         <v>50109.19666666667</v>
       </c>
-      <c r="J17" s="26" t="n">
-        <v>38136.2675</v>
-      </c>
-      <c r="K17" s="26" t="n">
+      <c r="J17" s="26">
+        <v>38136.267500000002</v>
+      </c>
+      <c r="K17" s="26">
         <v>51874.77285714286</v>
       </c>
-      <c r="L17" s="26" t="n">
-        <v>50688.407</v>
-      </c>
-      <c r="M17" s="26" t="n">
+      <c r="L17" s="26">
+        <v>50688.406999999999</v>
+      </c>
+      <c r="M17" s="26">
         <v>50015.47105263159</v>
       </c>
-      <c r="N17" s="26" t="n">
-        <v>47447.21555555557</v>
-      </c>
-      <c r="O17" s="30" t="n"/>
-      <c r="P17" s="1" t="n"/>
-      <c r="R17" s="1" t="n"/>
-      <c r="S17" s="1" t="n"/>
+      <c r="N17" s="26">
+        <v>47447.215555555566</v>
+      </c>
+      <c r="O17" s="30"/>
+      <c r="P17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="24" t="inlineStr">
-        <is>
-          <t>AUSIAS MARCH (entre Av. de la Plata y Peris y Valero)</t>
-        </is>
-      </c>
-      <c r="B18" s="27" t="n">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="27">
         <v>48716.6307053942</v>
       </c>
-      <c r="C18" s="27" t="n">
-        <v>48331.1428571429</v>
-      </c>
-      <c r="D18" s="27" t="n">
-        <v>49060.8</v>
-      </c>
-      <c r="E18" s="27" t="n">
-        <v>49004.7826086957</v>
-      </c>
-      <c r="F18" s="27" t="n">
-        <v>50110.8214285714</v>
-      </c>
-      <c r="G18" s="27" t="n">
-        <v>49537.9772727273</v>
-      </c>
-      <c r="H18" s="27" t="n">
-        <v>50486.6428571429</v>
-      </c>
-      <c r="I18" s="27" t="n">
+      <c r="C18" s="27">
+        <v>48331.142857142899</v>
+      </c>
+      <c r="D18" s="27">
+        <v>49060.800000000003</v>
+      </c>
+      <c r="E18" s="27">
+        <v>49004.782608695699</v>
+      </c>
+      <c r="F18" s="27">
+        <v>50110.821428571398</v>
+      </c>
+      <c r="G18" s="27">
+        <v>49537.977272727301</v>
+      </c>
+      <c r="H18" s="27">
+        <v>50486.642857142899</v>
+      </c>
+      <c r="I18" s="27">
         <v>51050.4047619048</v>
       </c>
-      <c r="J18" s="27" t="n">
-        <v>41921.0238095238</v>
-      </c>
-      <c r="K18" s="27" t="n">
-        <v>49867.0714285714</v>
-      </c>
-      <c r="L18" s="27" t="n">
-        <v>49725.7894736842</v>
-      </c>
-      <c r="M18" s="27" t="n">
+      <c r="J18" s="27">
+        <v>41921.023809523802</v>
+      </c>
+      <c r="K18" s="27">
+        <v>49867.071428571398</v>
+      </c>
+      <c r="L18" s="27">
+        <v>49725.789473684199</v>
+      </c>
+      <c r="M18" s="27">
         <v>48517.4047619048</v>
       </c>
-      <c r="N18" s="27" t="n">
-        <v>47209.2647058823</v>
-      </c>
-      <c r="O18" s="30" t="n"/>
-      <c r="P18" s="1" t="n"/>
-      <c r="R18" s="1" t="n"/>
-      <c r="S18" s="1" t="n"/>
+      <c r="N18" s="27">
+        <v>47209.264705882299</v>
+      </c>
+      <c r="O18" s="30"/>
+      <c r="P18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="25" t="inlineStr">
-        <is>
-          <t>FERNANDO EL CATOLICO (entre Ángel Guimerá y Paseo Pechina)</t>
-        </is>
-      </c>
-      <c r="B19" s="26" t="n">
-        <v>48490.54958677686</v>
-      </c>
-      <c r="C19" s="26" t="n">
-        <v>46171.71428571428</v>
-      </c>
-      <c r="D19" s="26" t="n">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="26">
+        <v>48490.549586776862</v>
+      </c>
+      <c r="C19" s="26">
+        <v>46171.714285714283</v>
+      </c>
+      <c r="D19" s="26">
         <v>50239.5</v>
       </c>
-      <c r="E19" s="26" t="n">
-        <v>48638.69565217391</v>
-      </c>
-      <c r="F19" s="26" t="n">
-        <v>49608.57142857143</v>
-      </c>
-      <c r="G19" s="26" t="n">
-        <v>50283.27272727273</v>
-      </c>
-      <c r="H19" s="26" t="n">
-        <v>50517.52380952381</v>
-      </c>
-      <c r="I19" s="26" t="n">
-        <v>47895.09523809524</v>
-      </c>
-      <c r="J19" s="26" t="n">
-        <v>35683.52380952381</v>
-      </c>
-      <c r="K19" s="26" t="n">
+      <c r="E19" s="26">
+        <v>48638.695652173912</v>
+      </c>
+      <c r="F19" s="26">
+        <v>49608.571428571428</v>
+      </c>
+      <c r="G19" s="26">
+        <v>50283.272727272728</v>
+      </c>
+      <c r="H19" s="26">
+        <v>50517.523809523809</v>
+      </c>
+      <c r="I19" s="26">
+        <v>47895.095238095237</v>
+      </c>
+      <c r="J19" s="26">
+        <v>35683.523809523809</v>
+      </c>
+      <c r="K19" s="26">
         <v>50576.7</v>
       </c>
-      <c r="L19" s="26" t="n">
+      <c r="L19" s="26">
         <v>50745.4</v>
       </c>
-      <c r="M19" s="26" t="n">
-        <v>51055.04761904762</v>
-      </c>
-      <c r="N19" s="26" t="n">
-        <v>51458.77777777778</v>
-      </c>
-      <c r="O19" s="30" t="n"/>
-      <c r="P19" s="1" t="n"/>
-      <c r="R19" s="1" t="n"/>
-      <c r="S19" s="1" t="n"/>
+      <c r="M19" s="26">
+        <v>51055.047619047618</v>
+      </c>
+      <c r="N19" s="26">
+        <v>51458.777777777781</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>DOCTOR PESET ALEIXANDRE (entre Juan XXIII y Camino de Moncada)</t>
-        </is>
-      </c>
-      <c r="B20" s="27" t="n">
-        <v>46606.33187772926</v>
-      </c>
-      <c r="C20" s="27" t="n">
-        <v>52898.52380952381</v>
-      </c>
-      <c r="D20" s="27" t="n">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="27">
+        <v>46606.331877729259</v>
+      </c>
+      <c r="C20" s="27">
+        <v>52898.523809523809</v>
+      </c>
+      <c r="D20" s="27">
         <v>53941.1</v>
       </c>
-      <c r="E20" s="27" t="n">
-        <v>53512.31818181818</v>
-      </c>
-      <c r="F20" s="27" t="n">
-        <v>53896.84615384616</v>
-      </c>
-      <c r="G20" s="27" t="n">
-        <v>55721.77272727273</v>
-      </c>
-      <c r="H20" s="27" t="n">
-        <v>55160.19047619047</v>
-      </c>
-      <c r="I20" s="27" t="n">
-        <v>50424.64705882353</v>
-      </c>
-      <c r="J20" s="27" t="n">
-        <v>17183.17647058823</v>
-      </c>
-      <c r="K20" s="27" t="n">
-        <v>24925.42857142857</v>
-      </c>
-      <c r="L20" s="27" t="n">
+      <c r="E20" s="27">
+        <v>53512.318181818184</v>
+      </c>
+      <c r="F20" s="27">
+        <v>53896.846153846156</v>
+      </c>
+      <c r="G20" s="27">
+        <v>55721.772727272728</v>
+      </c>
+      <c r="H20" s="27">
+        <v>55160.190476190473</v>
+      </c>
+      <c r="I20" s="27">
+        <v>50424.647058823532</v>
+      </c>
+      <c r="J20" s="27">
+        <v>17183.176470588234</v>
+      </c>
+      <c r="K20" s="27">
+        <v>24925.428571428572</v>
+      </c>
+      <c r="L20" s="27">
         <v>37646.35</v>
       </c>
-      <c r="M20" s="27" t="n">
-        <v>52045.94736842105</v>
-      </c>
-      <c r="N20" s="27" t="n">
+      <c r="M20" s="27">
+        <v>52045.947368421053</v>
+      </c>
+      <c r="N20" s="27">
         <v>50401.1875</v>
       </c>
-      <c r="O20" s="30" t="n"/>
-      <c r="P20" s="1" t="n"/>
-      <c r="R20" s="1" t="n"/>
-      <c r="S20" s="1" t="n"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="25" t="inlineStr">
-        <is>
-          <t>SERRERIA (entre Av. del Puerto y Santos Justo y Pastor)</t>
-        </is>
-      </c>
-      <c r="B21" s="26" t="n">
-        <v>45879.84362139917</v>
-      </c>
-      <c r="C21" s="26" t="n">
-        <v>45075.57142857143</v>
-      </c>
-      <c r="D21" s="26" t="n">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="26">
+        <v>45879.843621399174</v>
+      </c>
+      <c r="C21" s="26">
+        <v>45075.571428571428</v>
+      </c>
+      <c r="D21" s="26">
         <v>45874.5</v>
       </c>
-      <c r="E21" s="26" t="n">
-        <v>46314.13043478261</v>
-      </c>
-      <c r="F21" s="26" t="n">
-        <v>46591.14285714286</v>
-      </c>
-      <c r="G21" s="26" t="n">
-        <v>47283.72727272727</v>
-      </c>
-      <c r="H21" s="26" t="n">
-        <v>48435.57142857143</v>
-      </c>
-      <c r="I21" s="26" t="n">
-        <v>47475.19047619047</v>
-      </c>
-      <c r="J21" s="26" t="n">
-        <v>37992.61904761905</v>
-      </c>
-      <c r="K21" s="26" t="n">
-        <v>46136.95238095238</v>
-      </c>
-      <c r="L21" s="26" t="n">
+      <c r="E21" s="26">
+        <v>46314.130434782608</v>
+      </c>
+      <c r="F21" s="26">
+        <v>46591.142857142855</v>
+      </c>
+      <c r="G21" s="26">
+        <v>47283.727272727272</v>
+      </c>
+      <c r="H21" s="26">
+        <v>48435.571428571428</v>
+      </c>
+      <c r="I21" s="26">
+        <v>47475.190476190473</v>
+      </c>
+      <c r="J21" s="26">
+        <v>37992.619047619046</v>
+      </c>
+      <c r="K21" s="26">
+        <v>46136.952380952382</v>
+      </c>
+      <c r="L21" s="26">
         <v>46208.65</v>
       </c>
-      <c r="M21" s="26" t="n">
-        <v>47958.71428571428</v>
-      </c>
-      <c r="N21" s="26" t="n">
-        <v>45268.27777777778</v>
-      </c>
-      <c r="O21" s="30" t="n"/>
-      <c r="P21" s="1" t="n"/>
-      <c r="R21" s="1" t="n"/>
-      <c r="S21" s="1" t="n"/>
+      <c r="M21" s="26">
+        <v>47958.714285714283</v>
+      </c>
+      <c r="N21" s="26">
+        <v>45268.277777777781</v>
+      </c>
+      <c r="O21" s="30"/>
+      <c r="P21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="24" t="inlineStr">
-        <is>
-          <t>GENERAL AVILES (entre Pío XII y Av. Burjasot)</t>
-        </is>
-      </c>
-      <c r="B22" s="27" t="n">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="27">
         <v>45774.39495798319</v>
       </c>
-      <c r="C22" s="27" t="n">
-        <v>46547.33333333334</v>
-      </c>
-      <c r="D22" s="27" t="n">
+      <c r="C22" s="27">
+        <v>46547.333333333336</v>
+      </c>
+      <c r="D22" s="27">
         <v>46523.95</v>
       </c>
-      <c r="E22" s="27" t="n">
-        <v>41587.85714285714</v>
-      </c>
-      <c r="F22" s="27" t="n">
-        <v>45355.3076923077</v>
-      </c>
-      <c r="G22" s="27" t="n">
+      <c r="E22" s="27">
+        <v>41587.857142857145</v>
+      </c>
+      <c r="F22" s="27">
+        <v>45355.307692307695</v>
+      </c>
+      <c r="G22" s="27">
         <v>48397.13636363636</v>
       </c>
-      <c r="H22" s="27" t="n">
-        <v>48248.42857142857</v>
-      </c>
-      <c r="I22" s="27" t="n">
-        <v>45488.52380952381</v>
-      </c>
-      <c r="J22" s="27" t="n">
-        <v>34648.80952380953</v>
-      </c>
-      <c r="K22" s="27" t="n">
-        <v>47797.52380952381</v>
-      </c>
-      <c r="L22" s="27" t="n">
+      <c r="H22" s="27">
+        <v>48248.428571428572</v>
+      </c>
+      <c r="I22" s="27">
+        <v>45488.523809523809</v>
+      </c>
+      <c r="J22" s="27">
+        <v>34648.809523809527</v>
+      </c>
+      <c r="K22" s="27">
+        <v>47797.523809523809</v>
+      </c>
+      <c r="L22" s="27">
         <v>48760.4</v>
       </c>
-      <c r="M22" s="27" t="n">
-        <v>48805.63157894737</v>
-      </c>
-      <c r="N22" s="27" t="n">
-        <v>47570.44444444445</v>
-      </c>
-      <c r="O22" s="30" t="n"/>
-      <c r="P22" s="1" t="n"/>
-      <c r="R22" s="1" t="n"/>
-      <c r="S22" s="1" t="n"/>
+      <c r="M22" s="27">
+        <v>48805.631578947367</v>
+      </c>
+      <c r="N22" s="27">
+        <v>47570.444444444445</v>
+      </c>
+      <c r="O22" s="30"/>
+      <c r="P22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="25" t="inlineStr">
-        <is>
-          <t>PRIMADO REIG (entre Av. Constitución y Alfahuir)</t>
-        </is>
-      </c>
-      <c r="B23" s="26" t="n">
-        <v>45192.63865546219</v>
-      </c>
-      <c r="C23" s="26" t="n">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="26">
+        <v>45192.638655462186</v>
+      </c>
+      <c r="C23" s="26">
         <v>45771.4</v>
       </c>
-      <c r="D23" s="26" t="n">
+      <c r="D23" s="26">
         <v>46831</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="26">
         <v>46770.63636363636</v>
       </c>
-      <c r="F23" s="26" t="n">
-        <v>45993.42857142857</v>
-      </c>
-      <c r="G23" s="26" t="n">
+      <c r="F23" s="26">
+        <v>45993.428571428572</v>
+      </c>
+      <c r="G23" s="26">
         <v>47368.63636363636</v>
       </c>
-      <c r="H23" s="26" t="n">
-        <v>47020.19047619047</v>
-      </c>
-      <c r="I23" s="26" t="n">
+      <c r="H23" s="26">
+        <v>47020.190476190473</v>
+      </c>
+      <c r="I23" s="26">
         <v>44987.3</v>
       </c>
-      <c r="J23" s="26" t="n">
-        <v>33027.52380952381</v>
-      </c>
-      <c r="K23" s="26" t="n">
-        <v>46115.33333333334</v>
-      </c>
-      <c r="L23" s="26" t="n">
-        <v>46959.2</v>
-      </c>
-      <c r="M23" s="26" t="n">
-        <v>45960.78947368421</v>
-      </c>
-      <c r="N23" s="26" t="n">
-        <v>45956.61111111111</v>
-      </c>
-      <c r="O23" s="30" t="n"/>
-      <c r="P23" s="1" t="n"/>
-      <c r="R23" s="1" t="n"/>
-      <c r="S23" s="1" t="n"/>
+      <c r="J23" s="26">
+        <v>33027.523809523809</v>
+      </c>
+      <c r="K23" s="26">
+        <v>46115.333333333336</v>
+      </c>
+      <c r="L23" s="26">
+        <v>46959.199999999997</v>
+      </c>
+      <c r="M23" s="26">
+        <v>45960.789473684214</v>
+      </c>
+      <c r="N23" s="26">
+        <v>45956.611111111109</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="24" t="inlineStr">
-        <is>
-          <t>Av. de los NARANJOS (entre Ramón Llull y Av. de Cataluña)</t>
-        </is>
-      </c>
-      <c r="B24" s="27" t="n">
-        <v>43517.4416666667</v>
-      </c>
-      <c r="C24" s="27" t="n">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="27">
+        <v>43517.441666666702</v>
+      </c>
+      <c r="C24" s="27">
         <v>40810.35</v>
       </c>
-      <c r="D24" s="27" t="n">
-        <v>43827.075</v>
-      </c>
-      <c r="E24" s="27" t="n">
-        <v>43195.0476190476</v>
-      </c>
-      <c r="F24" s="27" t="n">
-        <v>44002.4285714286</v>
-      </c>
-      <c r="G24" s="27" t="n">
-        <v>45417.1590909091</v>
-      </c>
-      <c r="H24" s="27" t="n">
-        <v>46347.6666666667</v>
-      </c>
-      <c r="I24" s="27" t="n">
-        <v>44803.0714285714</v>
-      </c>
-      <c r="J24" s="27" t="n">
+      <c r="D24" s="27">
+        <v>43827.074999999997</v>
+      </c>
+      <c r="E24" s="27">
+        <v>43195.047619047597</v>
+      </c>
+      <c r="F24" s="27">
+        <v>44002.428571428602</v>
+      </c>
+      <c r="G24" s="27">
+        <v>45417.159090909103</v>
+      </c>
+      <c r="H24" s="27">
+        <v>46347.666666666701</v>
+      </c>
+      <c r="I24" s="27">
+        <v>44803.071428571398</v>
+      </c>
+      <c r="J24" s="27">
         <v>33424.5</v>
       </c>
-      <c r="K24" s="27" t="n">
-        <v>44590.2142857143</v>
-      </c>
-      <c r="L24" s="27" t="n">
+      <c r="K24" s="27">
+        <v>44590.214285714297</v>
+      </c>
+      <c r="L24" s="27">
         <v>46377.25</v>
       </c>
-      <c r="M24" s="27" t="n">
-        <v>46146.880952381</v>
-      </c>
-      <c r="N24" s="27" t="n">
-        <v>43334.7777777778</v>
-      </c>
-      <c r="O24" s="30" t="n"/>
-      <c r="P24" s="1" t="n"/>
-      <c r="R24" s="1" t="n"/>
-      <c r="S24" s="1" t="n"/>
+      <c r="M24" s="27">
+        <v>46146.880952380998</v>
+      </c>
+      <c r="N24" s="27">
+        <v>43334.777777777803</v>
+      </c>
+      <c r="O24" s="30"/>
+      <c r="P24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="25" t="inlineStr">
-        <is>
-          <t>SERRERIA (entre Santos Justo y Pastor y Blasco Ibáñez)</t>
-        </is>
-      </c>
-      <c r="B25" s="26" t="n">
-        <v>42873.29012345679</v>
-      </c>
-      <c r="C25" s="26" t="n">
-        <v>41894.71428571428</v>
-      </c>
-      <c r="D25" s="26" t="n">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="26">
+        <v>42873.290123456791</v>
+      </c>
+      <c r="C25" s="26">
+        <v>41894.714285714283</v>
+      </c>
+      <c r="D25" s="26">
         <v>42722.75</v>
       </c>
-      <c r="E25" s="26" t="n">
-        <v>42927.13043478261</v>
-      </c>
-      <c r="F25" s="26" t="n">
-        <v>43872.14285714286</v>
-      </c>
-      <c r="G25" s="26" t="n">
+      <c r="E25" s="26">
+        <v>42927.130434782608</v>
+      </c>
+      <c r="F25" s="26">
+        <v>43872.142857142855</v>
+      </c>
+      <c r="G25" s="26">
         <v>44521.5</v>
       </c>
-      <c r="H25" s="26" t="n">
-        <v>45860.52380952381</v>
-      </c>
-      <c r="I25" s="26" t="n">
-        <v>44610.61904761905</v>
-      </c>
-      <c r="J25" s="26" t="n">
-        <v>36516.4</v>
-      </c>
-      <c r="K25" s="26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L25" s="26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M25" s="26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N25" s="26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O25" s="30" t="n"/>
-      <c r="P25" s="1" t="n"/>
-      <c r="R25" s="1" t="n"/>
-      <c r="S25" s="1" t="n"/>
+      <c r="H25" s="26">
+        <v>45860.523809523809</v>
+      </c>
+      <c r="I25" s="26">
+        <v>44610.619047619046</v>
+      </c>
+      <c r="J25" s="26">
+        <v>36516.400000000001</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" s="30"/>
+      <c r="P25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="24" t="inlineStr">
-        <is>
-          <t>P.I. GERMANIAS (Puente Aragón)</t>
-        </is>
-      </c>
-      <c r="B26" s="27" t="n">
-        <v>42147.77272727273</v>
-      </c>
-      <c r="C26" s="27" t="n">
-        <v>14187.61904761905</v>
-      </c>
-      <c r="D26" s="27" t="n">
-        <v>14761.1052631579</v>
-      </c>
-      <c r="E26" s="27" t="n">
-        <v>32996.21739130434</v>
-      </c>
-      <c r="F26" s="27" t="n">
-        <v>49473.71428571428</v>
-      </c>
-      <c r="G26" s="27" t="n">
-        <v>50760.45454545454</v>
-      </c>
-      <c r="H26" s="27" t="n">
-        <v>51825.61904761905</v>
-      </c>
-      <c r="I26" s="27" t="n">
-        <v>50829.38095238095</v>
-      </c>
-      <c r="J26" s="27" t="n">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="27">
+        <v>42147.772727272728</v>
+      </c>
+      <c r="C26" s="27">
+        <v>14187.619047619048</v>
+      </c>
+      <c r="D26" s="27">
+        <v>14761.105263157895</v>
+      </c>
+      <c r="E26" s="27">
+        <v>32996.217391304344</v>
+      </c>
+      <c r="F26" s="27">
+        <v>49473.714285714283</v>
+      </c>
+      <c r="G26" s="27">
+        <v>50760.454545454544</v>
+      </c>
+      <c r="H26" s="27">
+        <v>51825.619047619046</v>
+      </c>
+      <c r="I26" s="27">
+        <v>50829.380952380954</v>
+      </c>
+      <c r="J26" s="27">
         <v>38980</v>
       </c>
-      <c r="K26" s="27" t="n">
-        <v>50727.85714285714</v>
-      </c>
-      <c r="L26" s="27" t="n">
+      <c r="K26" s="27">
+        <v>50727.857142857145</v>
+      </c>
+      <c r="L26" s="27">
         <v>51058.05</v>
       </c>
-      <c r="M26" s="27" t="n">
-        <v>51312.28571428572</v>
-      </c>
-      <c r="N26" s="27" t="n">
-        <v>50819.22222222222</v>
-      </c>
-      <c r="O26" s="30" t="n"/>
-      <c r="P26" s="1" t="n"/>
-      <c r="R26" s="1" t="n"/>
-      <c r="S26" s="1" t="n"/>
+      <c r="M26" s="27">
+        <v>51312.285714285717</v>
+      </c>
+      <c r="N26" s="27">
+        <v>50819.222222222219</v>
+      </c>
+      <c r="O26" s="30"/>
+      <c r="P26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="25" t="inlineStr">
-        <is>
-          <t>MAESTRO RODRIGO (entre Valle de la Ballestera y General Avilés)</t>
-        </is>
-      </c>
-      <c r="B27" s="26" t="n">
-        <v>40684.28248587571</v>
-      </c>
-      <c r="C27" s="26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" s="26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" s="26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F27" s="26" t="n">
-        <v>42181.46153846154</v>
-      </c>
-      <c r="G27" s="26" t="n">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="26">
+        <v>40684.282485875709</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="26">
+        <v>42181.461538461539</v>
+      </c>
+      <c r="G27" s="26">
         <v>42701</v>
       </c>
-      <c r="H27" s="26" t="n">
-        <v>42565.14285714286</v>
-      </c>
-      <c r="I27" s="26" t="n">
-        <v>39044.95238095238</v>
-      </c>
-      <c r="J27" s="26" t="n">
+      <c r="H27" s="26">
+        <v>42565.142857142855</v>
+      </c>
+      <c r="I27" s="26">
+        <v>39044.952380952382</v>
+      </c>
+      <c r="J27" s="26">
         <v>27732.85</v>
       </c>
-      <c r="K27" s="26" t="n">
-        <v>41838.19047619047</v>
-      </c>
-      <c r="L27" s="26" t="n">
+      <c r="K27" s="26">
+        <v>41838.190476190473</v>
+      </c>
+      <c r="L27" s="26">
         <v>43737.8</v>
       </c>
-      <c r="M27" s="26" t="n">
-        <v>43825.95238095238</v>
-      </c>
-      <c r="N27" s="26" t="n">
+      <c r="M27" s="26">
+        <v>43825.952380952382</v>
+      </c>
+      <c r="N27" s="26">
         <v>42842.5</v>
       </c>
-      <c r="O27" s="30" t="n"/>
-      <c r="P27" s="1" t="n"/>
-      <c r="R27" s="1" t="n"/>
-      <c r="S27" s="1" t="n"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="24" t="inlineStr">
-        <is>
-          <t>CONDE TRENOR (de Puente de Serranos a Puente de la Trinidad)</t>
-        </is>
-      </c>
-      <c r="B28" s="27" t="n">
-        <v>40466.65432098765</v>
-      </c>
-      <c r="C28" s="27" t="n">
-        <v>40091.47619047619</v>
-      </c>
-      <c r="D28" s="27" t="n">
-        <v>41507.8</v>
-      </c>
-      <c r="E28" s="27" t="n">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="27">
+        <v>40466.654320987655</v>
+      </c>
+      <c r="C28" s="27">
+        <v>40091.476190476191</v>
+      </c>
+      <c r="D28" s="27">
+        <v>41507.800000000003</v>
+      </c>
+      <c r="E28" s="27">
         <v>38515.65217391304</v>
       </c>
-      <c r="F28" s="27" t="n">
-        <v>40578.71428571428</v>
-      </c>
-      <c r="G28" s="27" t="n">
-        <v>41864.90909090909</v>
-      </c>
-      <c r="H28" s="27" t="n">
-        <v>42404.38095238095</v>
-      </c>
-      <c r="I28" s="27" t="n">
-        <v>41234.14285714286</v>
-      </c>
-      <c r="J28" s="27" t="n">
-        <v>31143.19047619048</v>
-      </c>
-      <c r="K28" s="27" t="n">
-        <v>42047.42857142857</v>
-      </c>
-      <c r="L28" s="27" t="n">
+      <c r="F28" s="27">
+        <v>40578.714285714283</v>
+      </c>
+      <c r="G28" s="27">
+        <v>41864.909090909088</v>
+      </c>
+      <c r="H28" s="27">
+        <v>42404.380952380954</v>
+      </c>
+      <c r="I28" s="27">
+        <v>41234.142857142855</v>
+      </c>
+      <c r="J28" s="27">
+        <v>31143.190476190477</v>
+      </c>
+      <c r="K28" s="27">
+        <v>42047.428571428572</v>
+      </c>
+      <c r="L28" s="27">
         <v>42283.6</v>
       </c>
-      <c r="M28" s="27" t="n">
-        <v>42159.66666666666</v>
-      </c>
-      <c r="N28" s="27" t="n">
-        <v>42327.38888888889</v>
-      </c>
-      <c r="O28" s="30" t="n"/>
-      <c r="P28" s="1" t="n"/>
-      <c r="R28" s="1" t="n"/>
-      <c r="S28" s="1" t="n"/>
+      <c r="M28" s="27">
+        <v>42159.666666666664</v>
+      </c>
+      <c r="N28" s="27">
+        <v>42327.388888888891</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="25" t="inlineStr">
-        <is>
-          <t>MAESTRO RODRIGO (entre Puente Campanar y Valle de la Ballestera)</t>
-        </is>
-      </c>
-      <c r="B29" s="26" t="n">
-        <v>39222.59583333333</v>
-      </c>
-      <c r="C29" s="26" t="n">
-        <v>40040.23809523809</v>
-      </c>
-      <c r="D29" s="26" t="n">
-        <v>40648.45</v>
-      </c>
-      <c r="E29" s="26" t="n">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="26">
+        <v>39222.595833333333</v>
+      </c>
+      <c r="C29" s="26">
+        <v>40040.238095238092</v>
+      </c>
+      <c r="D29" s="26">
+        <v>40648.449999999997</v>
+      </c>
+      <c r="E29" s="26">
         <v>39508.17391304348</v>
       </c>
-      <c r="F29" s="26" t="n">
-        <v>38890.46153846154</v>
-      </c>
-      <c r="G29" s="26" t="n">
-        <v>40029.31818181818</v>
-      </c>
-      <c r="H29" s="26" t="n">
+      <c r="F29" s="26">
+        <v>38890.461538461539</v>
+      </c>
+      <c r="G29" s="26">
+        <v>40029.318181818184</v>
+      </c>
+      <c r="H29" s="26">
         <v>40071</v>
       </c>
-      <c r="I29" s="26" t="n">
-        <v>37217.09523809524</v>
-      </c>
-      <c r="J29" s="26" t="n">
-        <v>27336.66666666667</v>
-      </c>
-      <c r="K29" s="26" t="n">
-        <v>41106.61904761905</v>
-      </c>
-      <c r="L29" s="26" t="n">
+      <c r="I29" s="26">
+        <v>37217.095238095237</v>
+      </c>
+      <c r="J29" s="26">
+        <v>27336.666666666668</v>
+      </c>
+      <c r="K29" s="26">
+        <v>41106.619047619046</v>
+      </c>
+      <c r="L29" s="26">
         <v>43147.15</v>
       </c>
-      <c r="M29" s="26" t="n">
-        <v>42702.14285714286</v>
-      </c>
-      <c r="N29" s="26" t="n">
-        <v>40266.38888888889</v>
-      </c>
-      <c r="O29" s="30" t="n"/>
-      <c r="P29" s="1" t="n"/>
-      <c r="R29" s="1" t="n"/>
-      <c r="S29" s="1" t="n"/>
+      <c r="M29" s="26">
+        <v>42702.142857142855</v>
+      </c>
+      <c r="N29" s="26">
+        <v>40266.388888888891</v>
+      </c>
+      <c r="O29" s="30"/>
+      <c r="P29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="24" t="inlineStr">
-        <is>
-          <t>PERIS Y VALERO (entre Ausias March y Zapadores)</t>
-        </is>
-      </c>
-      <c r="B30" s="27" t="n">
-        <v>38663.2488038278</v>
-      </c>
-      <c r="C30" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D30" s="27" t="n">
-        <v>39174.2</v>
-      </c>
-      <c r="E30" s="27" t="n">
-        <v>40653.95652173913</v>
-      </c>
-      <c r="F30" s="27" t="n">
-        <v>38025.46153846154</v>
-      </c>
-      <c r="G30" s="27" t="n">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="27">
+        <v>38663.248803827802</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="27">
+        <v>39174.199999999997</v>
+      </c>
+      <c r="E30" s="27">
+        <v>40653.956521739128</v>
+      </c>
+      <c r="F30" s="27">
+        <v>38025.461538461539</v>
+      </c>
+      <c r="G30" s="27">
         <v>39223.13636363636</v>
       </c>
-      <c r="H30" s="27" t="n">
-        <v>39999.66666666666</v>
-      </c>
-      <c r="I30" s="27" t="n">
+      <c r="H30" s="27">
+        <v>39999.666666666664</v>
+      </c>
+      <c r="I30" s="27">
         <v>38893</v>
       </c>
-      <c r="J30" s="27" t="n">
-        <v>30175.84210526316</v>
-      </c>
-      <c r="K30" s="27" t="n">
+      <c r="J30" s="27">
+        <v>30175.842105263157</v>
+      </c>
+      <c r="K30" s="27">
         <v>39039</v>
       </c>
-      <c r="L30" s="27" t="n">
-        <v>39946.4</v>
-      </c>
-      <c r="M30" s="27" t="n">
-        <v>39849.09523809524</v>
-      </c>
-      <c r="N30" s="27" t="n">
-        <v>39496.16666666666</v>
-      </c>
-      <c r="O30" s="30" t="n"/>
-      <c r="P30" s="1" t="n"/>
-      <c r="R30" s="1" t="n"/>
-      <c r="S30" s="1" t="n"/>
+      <c r="L30" s="27">
+        <v>39946.400000000001</v>
+      </c>
+      <c r="M30" s="27">
+        <v>39849.095238095237</v>
+      </c>
+      <c r="N30" s="27">
+        <v>39496.166666666664</v>
+      </c>
+      <c r="O30" s="30"/>
+      <c r="P30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="25" t="inlineStr">
-        <is>
-          <t>EDUARDO BOSCA (entre Paseo de la Alameda y Av. del Puerto)</t>
-        </is>
-      </c>
-      <c r="B31" s="26" t="n">
-        <v>38546.0826446281</v>
-      </c>
-      <c r="C31" s="26" t="n">
-        <v>38814.42857142857</v>
-      </c>
-      <c r="D31" s="26" t="n">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="26">
+        <v>38546.082644628099</v>
+      </c>
+      <c r="C31" s="26">
+        <v>38814.428571428572</v>
+      </c>
+      <c r="D31" s="26">
         <v>39803.15</v>
       </c>
-      <c r="E31" s="26" t="n">
-        <v>40451.78260869566</v>
-      </c>
-      <c r="F31" s="26" t="n">
-        <v>40481.85714285714</v>
-      </c>
-      <c r="G31" s="26" t="n">
+      <c r="E31" s="26">
+        <v>40451.782608695656</v>
+      </c>
+      <c r="F31" s="26">
+        <v>40481.857142857145</v>
+      </c>
+      <c r="G31" s="26">
         <v>40599.61363636364</v>
       </c>
-      <c r="H31" s="26" t="n">
+      <c r="H31" s="26">
         <v>41054.85</v>
       </c>
-      <c r="I31" s="26" t="n">
-        <v>39183.80952380953</v>
-      </c>
-      <c r="J31" s="26" t="n">
-        <v>31616.21428571429</v>
-      </c>
-      <c r="K31" s="26" t="n">
-        <v>38932.61904761905</v>
-      </c>
-      <c r="L31" s="26" t="n">
-        <v>37760.975</v>
-      </c>
-      <c r="M31" s="26" t="n">
-        <v>37298.35714285714</v>
-      </c>
-      <c r="N31" s="26" t="n">
-        <v>36816.11111111111</v>
-      </c>
-      <c r="O31" s="29" t="n"/>
+      <c r="I31" s="26">
+        <v>39183.809523809527</v>
+      </c>
+      <c r="J31" s="26">
+        <v>31616.214285714286</v>
+      </c>
+      <c r="K31" s="26">
+        <v>38932.619047619046</v>
+      </c>
+      <c r="L31" s="26">
+        <v>37760.974999999999</v>
+      </c>
+      <c r="M31" s="26">
+        <v>37298.357142857145</v>
+      </c>
+      <c r="N31" s="26">
+        <v>36816.111111111109</v>
+      </c>
+      <c r="O31" s="29"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="24" t="inlineStr">
-        <is>
-          <t>ALCALDE REIG (de Av. de la Plata a Reino de Valencia)</t>
-        </is>
-      </c>
-      <c r="B32" s="27" t="n">
-        <v>37603.2603305785</v>
-      </c>
-      <c r="C32" s="27" t="n">
-        <v>34678.7619047619</v>
-      </c>
-      <c r="D32" s="27" t="n">
-        <v>36726.3</v>
-      </c>
-      <c r="E32" s="27" t="n">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="27">
+        <v>37603.260330578501</v>
+      </c>
+      <c r="C32" s="27">
+        <v>34678.761904761901</v>
+      </c>
+      <c r="D32" s="27">
+        <v>36726.300000000003</v>
+      </c>
+      <c r="E32" s="27">
         <v>37555.0869565217</v>
       </c>
-      <c r="F32" s="27" t="n">
-        <v>38791.7857142857</v>
-      </c>
-      <c r="G32" s="27" t="n">
-        <v>37657.0909090909</v>
-      </c>
-      <c r="H32" s="27" t="n">
-        <v>40114.0476190476</v>
-      </c>
-      <c r="I32" s="27" t="n">
+      <c r="F32" s="27">
+        <v>38791.785714285703</v>
+      </c>
+      <c r="G32" s="27">
+        <v>37657.090909090897</v>
+      </c>
+      <c r="H32" s="27">
+        <v>40114.047619047597</v>
+      </c>
+      <c r="I32" s="27">
         <v>41665.9</v>
       </c>
-      <c r="J32" s="27" t="n">
+      <c r="J32" s="27">
         <v>31984.0952380952</v>
       </c>
-      <c r="K32" s="27" t="n">
-        <v>38660.619047619</v>
-      </c>
-      <c r="L32" s="27" t="n">
-        <v>38747.6</v>
-      </c>
-      <c r="M32" s="27" t="n">
-        <v>37983.7619047619</v>
-      </c>
-      <c r="N32" s="27" t="n">
-        <v>37224.3333333333</v>
-      </c>
-      <c r="O32" s="30" t="n"/>
-      <c r="P32" s="1" t="n"/>
-      <c r="R32" s="1" t="n"/>
-      <c r="S32" s="1" t="n"/>
+      <c r="K32" s="27">
+        <v>38660.619047619002</v>
+      </c>
+      <c r="L32" s="27">
+        <v>38747.599999999999</v>
+      </c>
+      <c r="M32" s="27">
+        <v>37983.761904761901</v>
+      </c>
+      <c r="N32" s="27">
+        <v>37224.333333333299</v>
+      </c>
+      <c r="O32" s="30"/>
+      <c r="P32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="25" t="inlineStr">
-        <is>
-          <t>BLASCO IBAÑEZ (entre Doctor Moliner y Av. Aragón)</t>
-        </is>
-      </c>
-      <c r="B33" s="26" t="n">
-        <v>36912.3933054393</v>
-      </c>
-      <c r="C33" s="26" t="n">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="26">
+        <v>36912.393305439298</v>
+      </c>
+      <c r="C33" s="26">
         <v>36566.9047619048</v>
       </c>
-      <c r="D33" s="26" t="n">
-        <v>37794.45</v>
-      </c>
-      <c r="E33" s="26" t="n">
-        <v>38267.4782608696</v>
-      </c>
-      <c r="F33" s="26" t="n">
-        <v>36846.9285714286</v>
-      </c>
-      <c r="G33" s="26" t="n">
-        <v>38200.7272727273</v>
-      </c>
-      <c r="H33" s="26" t="n">
-        <v>38699.95</v>
-      </c>
-      <c r="I33" s="26" t="n">
-        <v>37134.5555555556</v>
-      </c>
-      <c r="J33" s="26" t="n">
-        <v>27013.6666666667</v>
-      </c>
-      <c r="K33" s="26" t="n">
-        <v>37765.1428571429</v>
-      </c>
-      <c r="L33" s="26" t="n">
+      <c r="D33" s="26">
+        <v>37794.449999999997</v>
+      </c>
+      <c r="E33" s="26">
+        <v>38267.478260869597</v>
+      </c>
+      <c r="F33" s="26">
+        <v>36846.928571428602</v>
+      </c>
+      <c r="G33" s="26">
+        <v>38200.727272727301</v>
+      </c>
+      <c r="H33" s="26">
+        <v>38699.949999999997</v>
+      </c>
+      <c r="I33" s="26">
+        <v>37134.555555555598</v>
+      </c>
+      <c r="J33" s="26">
+        <v>27013.666666666701</v>
+      </c>
+      <c r="K33" s="26">
+        <v>37765.142857142899</v>
+      </c>
+      <c r="L33" s="26">
         <v>38566.5</v>
       </c>
-      <c r="M33" s="26" t="n">
-        <v>38517.619047619</v>
-      </c>
-      <c r="N33" s="26" t="n">
-        <v>37714.8333333333</v>
-      </c>
-      <c r="O33" s="30" t="n"/>
-      <c r="P33" s="1" t="n"/>
-      <c r="R33" s="1" t="n"/>
-      <c r="S33" s="1" t="n"/>
+      <c r="M33" s="26">
+        <v>38517.619047619002</v>
+      </c>
+      <c r="N33" s="26">
+        <v>37714.833333333299</v>
+      </c>
+      <c r="O33" s="30"/>
+      <c r="P33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="24" t="inlineStr">
-        <is>
-          <t>BLASCO IBAÑEZ (entre Avenida de Aragón y Clariano)</t>
-        </is>
-      </c>
-      <c r="B34" s="27" t="n">
-        <v>35231.0555555556</v>
-      </c>
-      <c r="C34" s="27" t="n">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="27">
+        <v>35231.055555555598</v>
+      </c>
+      <c r="C34" s="27">
         <v>19799.0952380952</v>
       </c>
-      <c r="D34" s="27" t="n">
-        <v>20747.025</v>
-      </c>
-      <c r="E34" s="27" t="n">
-        <v>40390.8913043478</v>
-      </c>
-      <c r="F34" s="27" t="n">
-        <v>39165.5357142857</v>
-      </c>
-      <c r="G34" s="27" t="n">
-        <v>39620.3863636364</v>
-      </c>
-      <c r="H34" s="27" t="n">
-        <v>39435.0476190476</v>
-      </c>
-      <c r="I34" s="27" t="n">
+      <c r="D34" s="27">
+        <v>20747.025000000001</v>
+      </c>
+      <c r="E34" s="27">
+        <v>40390.891304347802</v>
+      </c>
+      <c r="F34" s="27">
+        <v>39165.535714285703</v>
+      </c>
+      <c r="G34" s="27">
+        <v>39620.386363636397</v>
+      </c>
+      <c r="H34" s="27">
+        <v>39435.047619047597</v>
+      </c>
+      <c r="I34" s="27">
         <v>37720.5952380952</v>
       </c>
-      <c r="J34" s="27" t="n">
+      <c r="J34" s="27">
         <v>27776.4523809524</v>
       </c>
-      <c r="K34" s="27" t="n">
-        <v>37706.619047619</v>
-      </c>
-      <c r="L34" s="27" t="n">
+      <c r="K34" s="27">
+        <v>37706.619047619002</v>
+      </c>
+      <c r="L34" s="27">
         <v>38888.6</v>
       </c>
-      <c r="M34" s="27" t="n">
-        <v>43972.7619047619</v>
-      </c>
-      <c r="N34" s="27" t="n">
-        <v>38047.5277777778</v>
-      </c>
-      <c r="O34" s="30" t="n"/>
-      <c r="P34" s="1" t="n"/>
-      <c r="R34" s="1" t="n"/>
-      <c r="S34" s="1" t="n"/>
+      <c r="M34" s="27">
+        <v>43972.761904761901</v>
+      </c>
+      <c r="N34" s="27">
+        <v>38047.527777777803</v>
+      </c>
+      <c r="O34" s="30"/>
+      <c r="P34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="25" t="inlineStr">
-        <is>
-          <t>FERNANDO ABRIL MARTORELL (entre Carrera de Malilla y Ausias March)</t>
-        </is>
-      </c>
-      <c r="B35" s="26" t="n">
-        <v>35212.04938271605</v>
-      </c>
-      <c r="C35" s="26" t="n">
-        <v>34210.76190476191</v>
-      </c>
-      <c r="D35" s="26" t="n">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="26">
+        <v>35212.049382716046</v>
+      </c>
+      <c r="C35" s="26">
+        <v>34210.761904761908</v>
+      </c>
+      <c r="D35" s="26">
         <v>35571.85</v>
       </c>
-      <c r="E35" s="26" t="n">
+      <c r="E35" s="26">
         <v>35507.17391304348</v>
       </c>
-      <c r="F35" s="26" t="n">
-        <v>35977.28571428572</v>
-      </c>
-      <c r="G35" s="26" t="n">
+      <c r="F35" s="26">
+        <v>35977.285714285717</v>
+      </c>
+      <c r="G35" s="26">
         <v>36237.63636363636</v>
       </c>
-      <c r="H35" s="26" t="n">
+      <c r="H35" s="26">
         <v>36794</v>
       </c>
-      <c r="I35" s="26" t="n">
-        <v>35031.38095238095</v>
-      </c>
-      <c r="J35" s="26" t="n">
-        <v>28102.14285714286</v>
-      </c>
-      <c r="K35" s="26" t="n">
-        <v>35039.61904761905</v>
-      </c>
-      <c r="L35" s="26" t="n">
+      <c r="I35" s="26">
+        <v>35031.380952380954</v>
+      </c>
+      <c r="J35" s="26">
+        <v>28102.142857142859</v>
+      </c>
+      <c r="K35" s="26">
+        <v>35039.619047619046</v>
+      </c>
+      <c r="L35" s="26">
         <v>36670.9</v>
       </c>
-      <c r="M35" s="26" t="n">
-        <v>36823.66666666666</v>
-      </c>
-      <c r="N35" s="26" t="n">
-        <v>37114.72222222222</v>
-      </c>
-      <c r="O35" s="30" t="n"/>
-      <c r="P35" s="1" t="n"/>
-      <c r="R35" s="1" t="n"/>
-      <c r="S35" s="1" t="n"/>
+      <c r="M35" s="26">
+        <v>36823.666666666664</v>
+      </c>
+      <c r="N35" s="26">
+        <v>37114.722222222219</v>
+      </c>
+      <c r="O35" s="30"/>
+      <c r="P35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="24" t="inlineStr">
-        <is>
-          <t>GUILLEM de CASTRO (de Puente de las Artes a Puente de San José)</t>
-        </is>
-      </c>
-      <c r="B36" s="27" t="n">
-        <v>34213.24267782427</v>
-      </c>
-      <c r="C36" s="27" t="n">
-        <v>34233.47619047619</v>
-      </c>
-      <c r="D36" s="27" t="n">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="27">
+        <v>34213.242677824266</v>
+      </c>
+      <c r="C36" s="27">
+        <v>34233.476190476191</v>
+      </c>
+      <c r="D36" s="27">
         <v>35322.65</v>
       </c>
-      <c r="E36" s="27" t="n">
-        <v>34373.54545454546</v>
-      </c>
-      <c r="F36" s="27" t="n">
-        <v>33601.61538461538</v>
-      </c>
-      <c r="G36" s="27" t="n">
-        <v>34895.54545454546</v>
-      </c>
-      <c r="H36" s="27" t="n">
-        <v>35957.94736842105</v>
-      </c>
-      <c r="I36" s="27" t="n">
-        <v>35140.76190476191</v>
-      </c>
-      <c r="J36" s="27" t="n">
-        <v>26018.33333333333</v>
-      </c>
-      <c r="K36" s="27" t="n">
-        <v>34922.47619047619</v>
-      </c>
-      <c r="L36" s="27" t="n">
-        <v>35095.55</v>
-      </c>
-      <c r="M36" s="27" t="n">
-        <v>35552.33333333334</v>
-      </c>
-      <c r="N36" s="27" t="n">
-        <v>35635.77777777778</v>
-      </c>
-      <c r="O36" s="30" t="n"/>
-      <c r="P36" s="1" t="n"/>
-      <c r="R36" s="1" t="n"/>
-      <c r="S36" s="1" t="n"/>
+      <c r="E36" s="27">
+        <v>34373.545454545456</v>
+      </c>
+      <c r="F36" s="27">
+        <v>33601.615384615383</v>
+      </c>
+      <c r="G36" s="27">
+        <v>34895.545454545456</v>
+      </c>
+      <c r="H36" s="27">
+        <v>35957.947368421053</v>
+      </c>
+      <c r="I36" s="27">
+        <v>35140.761904761908</v>
+      </c>
+      <c r="J36" s="27">
+        <v>26018.333333333332</v>
+      </c>
+      <c r="K36" s="27">
+        <v>34922.476190476191</v>
+      </c>
+      <c r="L36" s="27">
+        <v>35095.550000000003</v>
+      </c>
+      <c r="M36" s="27">
+        <v>35552.333333333336</v>
+      </c>
+      <c r="N36" s="27">
+        <v>35635.777777777781</v>
+      </c>
+      <c r="O36" s="30"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="25" t="inlineStr">
-        <is>
-          <t>BLANQUERIAS (de Puente de San José a Pte. de Serranos)</t>
-        </is>
-      </c>
-      <c r="B37" s="26" t="n">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="26">
         <v>33405.5523012552</v>
       </c>
-      <c r="C37" s="26" t="n">
-        <v>33695.2857142857</v>
-      </c>
-      <c r="D37" s="26" t="n">
+      <c r="C37" s="26">
+        <v>33695.285714285703</v>
+      </c>
+      <c r="D37" s="26">
         <v>34603.1</v>
       </c>
-      <c r="E37" s="26" t="n">
-        <v>33771.4090909091</v>
-      </c>
-      <c r="F37" s="26" t="n">
+      <c r="E37" s="26">
+        <v>33771.409090909103</v>
+      </c>
+      <c r="F37" s="26">
         <v>33295</v>
       </c>
-      <c r="G37" s="26" t="n">
-        <v>34025.1363636364</v>
-      </c>
-      <c r="H37" s="26" t="n">
-        <v>34702.6111111111</v>
-      </c>
-      <c r="I37" s="26" t="n">
-        <v>33744.4285714286</v>
-      </c>
-      <c r="J37" s="26" t="n">
+      <c r="G37" s="26">
+        <v>34025.136363636397</v>
+      </c>
+      <c r="H37" s="26">
+        <v>34702.611111111102</v>
+      </c>
+      <c r="I37" s="26">
+        <v>33744.428571428602</v>
+      </c>
+      <c r="J37" s="26">
         <v>25254.9047619048</v>
       </c>
-      <c r="K37" s="26" t="n">
-        <v>34439.619047619</v>
-      </c>
-      <c r="L37" s="26" t="n">
+      <c r="K37" s="26">
+        <v>34439.619047619002</v>
+      </c>
+      <c r="L37" s="26">
         <v>34595.9</v>
       </c>
-      <c r="M37" s="26" t="n">
-        <v>34526.5238095238</v>
-      </c>
-      <c r="N37" s="26" t="n">
-        <v>34598.3333333333</v>
-      </c>
-      <c r="O37" s="30" t="n"/>
-      <c r="P37" s="1" t="n"/>
-      <c r="R37" s="1" t="n"/>
-      <c r="S37" s="1" t="n"/>
+      <c r="M37" s="26">
+        <v>34526.523809523802</v>
+      </c>
+      <c r="N37" s="26">
+        <v>34598.333333333299</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="24" t="inlineStr">
-        <is>
-          <t>PINTOR LOPEZ (de Puente de la Trinidad a Puente del Real)</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="n">
-        <v>32755.47717842324</v>
-      </c>
-      <c r="C38" s="27" t="n">
-        <v>32206.52380952381</v>
-      </c>
-      <c r="D38" s="27" t="n">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="27">
+        <v>32755.477178423236</v>
+      </c>
+      <c r="C38" s="27">
+        <v>32206.523809523809</v>
+      </c>
+      <c r="D38" s="27">
         <v>33431.75</v>
       </c>
-      <c r="E38" s="27" t="n">
-        <v>32474.42857142857</v>
-      </c>
-      <c r="F38" s="27" t="n">
+      <c r="E38" s="27">
+        <v>32474.428571428572</v>
+      </c>
+      <c r="F38" s="27">
         <v>32688.5</v>
       </c>
-      <c r="G38" s="27" t="n">
-        <v>33714.27272727273</v>
-      </c>
-      <c r="H38" s="27" t="n">
-        <v>34346.52380952381</v>
-      </c>
-      <c r="I38" s="27" t="n">
-        <v>33424.04761904762</v>
-      </c>
-      <c r="J38" s="27" t="n">
-        <v>24771.33333333333</v>
-      </c>
-      <c r="K38" s="27" t="n">
-        <v>33686.80952380953</v>
-      </c>
-      <c r="L38" s="27" t="n">
-        <v>34127.95</v>
-      </c>
-      <c r="M38" s="27" t="n">
-        <v>34037.09523809524</v>
-      </c>
-      <c r="N38" s="27" t="n">
+      <c r="G38" s="27">
+        <v>33714.272727272728</v>
+      </c>
+      <c r="H38" s="27">
+        <v>34346.523809523809</v>
+      </c>
+      <c r="I38" s="27">
+        <v>33424.047619047618</v>
+      </c>
+      <c r="J38" s="27">
+        <v>24771.333333333332</v>
+      </c>
+      <c r="K38" s="27">
+        <v>33686.809523809527</v>
+      </c>
+      <c r="L38" s="27">
+        <v>34127.949999999997</v>
+      </c>
+      <c r="M38" s="27">
+        <v>34037.095238095237</v>
+      </c>
+      <c r="N38" s="27">
         <v>34424.5</v>
       </c>
-      <c r="O38" s="30" t="n"/>
-      <c r="P38" s="1" t="n"/>
-      <c r="R38" s="1" t="n"/>
-      <c r="S38" s="1" t="n"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="25" t="inlineStr">
-        <is>
-          <t>CARDENAL BENLLOCH (entre Santos Justo y Pastor y Blasco Ibáñez)</t>
-        </is>
-      </c>
-      <c r="B39" s="26" t="n">
-        <v>32456.7261410788</v>
-      </c>
-      <c r="C39" s="26" t="n">
-        <v>32845.8095238095</v>
-      </c>
-      <c r="D39" s="26" t="n">
-        <v>33783.8</v>
-      </c>
-      <c r="E39" s="26" t="n">
-        <v>35191.52173913043</v>
-      </c>
-      <c r="F39" s="26" t="n">
-        <v>34920.53571428572</v>
-      </c>
-      <c r="G39" s="26" t="n">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="26">
+        <v>32456.726141078801</v>
+      </c>
+      <c r="C39" s="26">
+        <v>32845.809523809497</v>
+      </c>
+      <c r="D39" s="26">
+        <v>33783.800000000003</v>
+      </c>
+      <c r="E39" s="26">
+        <v>35191.521739130432</v>
+      </c>
+      <c r="F39" s="26">
+        <v>34920.535714285717</v>
+      </c>
+      <c r="G39" s="26">
         <v>34346.75</v>
       </c>
-      <c r="H39" s="26" t="n">
-        <v>33684.54761904762</v>
-      </c>
-      <c r="I39" s="26" t="n">
-        <v>31605.38095238095</v>
-      </c>
-      <c r="J39" s="26" t="n">
+      <c r="H39" s="26">
+        <v>33684.547619047618</v>
+      </c>
+      <c r="I39" s="26">
+        <v>31605.380952380954</v>
+      </c>
+      <c r="J39" s="26">
         <v>24886.875</v>
       </c>
-      <c r="K39" s="26" t="n">
+      <c r="K39" s="26">
         <v>32349.05</v>
       </c>
-      <c r="L39" s="26" t="n">
-        <v>32320.475</v>
-      </c>
-      <c r="M39" s="26" t="n">
+      <c r="L39" s="26">
+        <v>32320.474999999999</v>
+      </c>
+      <c r="M39" s="26">
         <v>32160</v>
       </c>
-      <c r="N39" s="26" t="n">
-        <v>31396.41666666667</v>
-      </c>
-      <c r="O39" s="30" t="n"/>
-      <c r="P39" s="1" t="n"/>
-      <c r="R39" s="1" t="n"/>
-      <c r="S39" s="1" t="n"/>
+      <c r="N39" s="26">
+        <v>31396.416666666668</v>
+      </c>
+      <c r="O39" s="30"/>
+      <c r="P39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="24" t="inlineStr">
-        <is>
-          <t>DOCTOR MANUEL CANDELA (entre Av. del Puerto y Santos Justo y Pastor)</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="n">
-        <v>30836.25518672198</v>
-      </c>
-      <c r="C40" s="27" t="n">
-        <v>29994.68285714286</v>
-      </c>
-      <c r="D40" s="27" t="n">
-        <v>31474.17549999999</v>
-      </c>
-      <c r="E40" s="27" t="n">
-        <v>30964.47913043479</v>
-      </c>
-      <c r="F40" s="27" t="n">
-        <v>31300.47071428571</v>
-      </c>
-      <c r="G40" s="27" t="n">
-        <v>32174.03863636364</v>
-      </c>
-      <c r="H40" s="27" t="n">
-        <v>32522.48285714286</v>
-      </c>
-      <c r="I40" s="27" t="n">
-        <v>30889.7115</v>
-      </c>
-      <c r="J40" s="27" t="n">
-        <v>22551.79047619048</v>
-      </c>
-      <c r="K40" s="27" t="n">
-        <v>31545.87000000001</v>
-      </c>
-      <c r="L40" s="27" t="n">
-        <v>32569.5215</v>
-      </c>
-      <c r="M40" s="27" t="n">
-        <v>32526.92523809524</v>
-      </c>
-      <c r="N40" s="27" t="n">
-        <v>31901.10888888889</v>
-      </c>
-      <c r="O40" s="30" t="n"/>
-      <c r="P40" s="1" t="n"/>
-      <c r="R40" s="1" t="n"/>
-      <c r="S40" s="1" t="n"/>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="27">
+        <v>30836.255186721981</v>
+      </c>
+      <c r="C40" s="27">
+        <v>29994.682857142856</v>
+      </c>
+      <c r="D40" s="27">
+        <v>31474.175499999994</v>
+      </c>
+      <c r="E40" s="27">
+        <v>30964.479130434789</v>
+      </c>
+      <c r="F40" s="27">
+        <v>31300.470714285711</v>
+      </c>
+      <c r="G40" s="27">
+        <v>32174.038636363635</v>
+      </c>
+      <c r="H40" s="27">
+        <v>32522.482857142862</v>
+      </c>
+      <c r="I40" s="27">
+        <v>30889.711500000005</v>
+      </c>
+      <c r="J40" s="27">
+        <v>22551.790476190476</v>
+      </c>
+      <c r="K40" s="27">
+        <v>31545.870000000006</v>
+      </c>
+      <c r="L40" s="27">
+        <v>32569.521500000003</v>
+      </c>
+      <c r="M40" s="27">
+        <v>32526.925238095242</v>
+      </c>
+      <c r="N40" s="27">
+        <v>31901.108888888892</v>
+      </c>
+      <c r="O40" s="30"/>
+      <c r="P40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="25" t="inlineStr">
-        <is>
-          <t>LUIS PEIXO (entre Blasco Ibáñez y Av. de los Naranjos)</t>
-        </is>
-      </c>
-      <c r="B41" s="26" t="n">
-        <v>30685.71369294606</v>
-      </c>
-      <c r="C41" s="26" t="n">
-        <v>37574.23809523809</v>
-      </c>
-      <c r="D41" s="26" t="n">
-        <v>36457.6</v>
-      </c>
-      <c r="E41" s="26" t="n">
-        <v>32979.21739130434</v>
-      </c>
-      <c r="F41" s="26" t="n">
-        <v>33405.64285714286</v>
-      </c>
-      <c r="G41" s="26" t="n">
-        <v>34209.04545454546</v>
-      </c>
-      <c r="H41" s="26" t="n">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="26">
+        <v>30685.713692946058</v>
+      </c>
+      <c r="C41" s="26">
+        <v>37574.238095238092</v>
+      </c>
+      <c r="D41" s="26">
+        <v>36457.599999999999</v>
+      </c>
+      <c r="E41" s="26">
+        <v>32979.217391304344</v>
+      </c>
+      <c r="F41" s="26">
+        <v>33405.642857142855</v>
+      </c>
+      <c r="G41" s="26">
+        <v>34209.045454545456</v>
+      </c>
+      <c r="H41" s="26">
         <v>35233</v>
       </c>
-      <c r="I41" s="26" t="n">
-        <v>34532.61904761905</v>
-      </c>
-      <c r="J41" s="26" t="n">
+      <c r="I41" s="26">
+        <v>34532.619047619046</v>
+      </c>
+      <c r="J41" s="26">
         <v>21239.21052631579</v>
       </c>
-      <c r="K41" s="26" t="n">
-        <v>25649.33333333333</v>
-      </c>
-      <c r="L41" s="26" t="n">
+      <c r="K41" s="26">
+        <v>25649.333333333332</v>
+      </c>
+      <c r="L41" s="26">
         <v>25690.1</v>
       </c>
-      <c r="M41" s="26" t="n">
-        <v>25263.19047619048</v>
-      </c>
-      <c r="N41" s="26" t="n">
-        <v>24814.33333333333</v>
-      </c>
-      <c r="O41" s="30" t="n"/>
-      <c r="P41" s="1" t="n"/>
-      <c r="R41" s="1" t="n"/>
-      <c r="S41" s="1" t="n"/>
+      <c r="M41" s="26">
+        <v>25263.190476190477</v>
+      </c>
+      <c r="N41" s="26">
+        <v>24814.333333333332</v>
+      </c>
+      <c r="O41" s="30"/>
+      <c r="P41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="24" t="inlineStr">
-        <is>
-          <t>PUENTE de MONTEOLIVETE (entre Alameda y Profesor López Piñero)</t>
-        </is>
-      </c>
-      <c r="B42" s="27" t="n">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="27">
         <v>30418.96551724138</v>
       </c>
-      <c r="C42" s="27" t="n">
-        <v>30208.52380952381</v>
-      </c>
-      <c r="D42" s="27" t="n">
+      <c r="C42" s="27">
+        <v>30208.523809523809</v>
+      </c>
+      <c r="D42" s="27">
         <v>31212.2</v>
       </c>
-      <c r="E42" s="27" t="n">
-        <v>31428.07142857143</v>
-      </c>
-      <c r="F42" s="27" t="n">
-        <v>30518.07692307692</v>
-      </c>
-      <c r="G42" s="27" t="n">
-        <v>31492.72727272727</v>
-      </c>
-      <c r="H42" s="27" t="n">
-        <v>31766.85714285714</v>
-      </c>
-      <c r="I42" s="27" t="n">
+      <c r="E42" s="27">
+        <v>31428.071428571428</v>
+      </c>
+      <c r="F42" s="27">
+        <v>30518.076923076922</v>
+      </c>
+      <c r="G42" s="27">
+        <v>31492.727272727272</v>
+      </c>
+      <c r="H42" s="27">
+        <v>31766.857142857141</v>
+      </c>
+      <c r="I42" s="27">
         <v>29786.55</v>
       </c>
-      <c r="J42" s="27" t="n">
-        <v>22919.04761904762</v>
-      </c>
-      <c r="K42" s="27" t="n">
-        <v>31987.09523809524</v>
-      </c>
-      <c r="L42" s="27" t="n">
+      <c r="J42" s="27">
+        <v>22919.047619047618</v>
+      </c>
+      <c r="K42" s="27">
+        <v>31987.095238095237</v>
+      </c>
+      <c r="L42" s="27">
         <v>31722.65</v>
       </c>
-      <c r="M42" s="27" t="n">
-        <v>31709.57142857143</v>
-      </c>
-      <c r="N42" s="27" t="n">
-        <v>30710.61111111111</v>
-      </c>
-      <c r="O42" s="29" t="n"/>
+      <c r="M42" s="27">
+        <v>31709.571428571428</v>
+      </c>
+      <c r="N42" s="27">
+        <v>30710.611111111109</v>
+      </c>
+      <c r="O42" s="29"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Se incluyen los tramos con medición de intensidad de tráfico y cuya IMD anual es superior a 30.000 vehículos. Datos correspondientes a intensidades de lunes a viernes de días laborables. (-) Sin datos.</t>
-        </is>
+    <row r="43" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
+    <row r="44" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="B45" s="10" t="n"/>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="10"/>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="B46" s="10" t="n"/>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="10"/>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="B48" s="10" t="n"/>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="10"/>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="B49" s="10" t="n"/>
+    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="10"/>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="B50" s="10" t="n"/>
+    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="10"/>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="B51" s="10" t="n"/>
+    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <sortState ref="A7:O45">
+    <sortCondition descending="1" ref="B7:B45"/>
+  </sortState>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="60.7109375" customWidth="1" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" min="2" max="8"/>
-    <col width="11.85546875" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>5. Intensidad media diaria en los tramos con mayor intensidad de la red viaria según día de la semana. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="1" t="n"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Descripción de la Vía</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Lunes laborable</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Martes laborable</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Miércoles laborable</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Jueves laborable</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Viernes laborable</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Festivos</t>
-        </is>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="24" t="inlineStr">
-        <is>
-          <t>CORTES VALENCIANAS (entre Camp del Turia y La Safor)</t>
-        </is>
-      </c>
-      <c r="B4" s="27" t="n">
-        <v>72106.91111111111</v>
-      </c>
-      <c r="C4" s="27" t="n">
-        <v>73487.19607843137</v>
-      </c>
-      <c r="D4" s="27" t="n">
-        <v>74101.51020408163</v>
-      </c>
-      <c r="E4" s="27" t="n">
-        <v>74799.40816326531</v>
-      </c>
-      <c r="F4" s="27" t="n">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="27">
+        <v>72106.911111111112</v>
+      </c>
+      <c r="C4" s="27">
+        <v>73487.196078431371</v>
+      </c>
+      <c r="D4" s="27">
+        <v>74101.510204081627</v>
+      </c>
+      <c r="E4" s="27">
+        <v>74799.408163265311</v>
+      </c>
+      <c r="F4" s="27">
         <v>76751.48936170213</v>
       </c>
-      <c r="G4" s="27" t="n">
-        <v>58551.84</v>
-      </c>
-      <c r="H4" s="27" t="n">
+      <c r="G4" s="27">
+        <v>58551.839999999997</v>
+      </c>
+      <c r="H4" s="27">
         <v>43604.54</v>
       </c>
-      <c r="I4" s="27" t="n">
-        <v>42349.70588235294</v>
+      <c r="I4" s="27">
+        <v>42349.705882352944</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="28" t="inlineStr">
-        <is>
-          <t>AUSIAS MARCH (entre Fernando Abril Martorell y Hermanos Maristas)</t>
-        </is>
-      </c>
-      <c r="B5" s="26" t="n">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="26">
         <v>69549.02608695651</v>
       </c>
-      <c r="C5" s="26" t="n">
-        <v>69759.56470588235</v>
-      </c>
-      <c r="D5" s="26" t="n">
-        <v>70371.36632653062</v>
-      </c>
-      <c r="E5" s="26" t="n">
-        <v>71271.40199999999</v>
-      </c>
-      <c r="F5" s="26" t="n">
-        <v>72529.09361702128</v>
-      </c>
-      <c r="G5" s="26" t="n">
-        <v>58668.29200000002</v>
-      </c>
-      <c r="H5" s="26" t="n">
-        <v>48519.323</v>
-      </c>
-      <c r="I5" s="26" t="n">
-        <v>46631.84411764706</v>
+      <c r="C5" s="26">
+        <v>69759.564705882352</v>
+      </c>
+      <c r="D5" s="26">
+        <v>70371.366326530624</v>
+      </c>
+      <c r="E5" s="26">
+        <v>71271.401999999987</v>
+      </c>
+      <c r="F5" s="26">
+        <v>72529.093617021281</v>
+      </c>
+      <c r="G5" s="26">
+        <v>58668.292000000023</v>
+      </c>
+      <c r="H5" s="26">
+        <v>48519.322999999997</v>
+      </c>
+      <c r="I5" s="26">
+        <v>46631.844117647059</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="24" t="inlineStr">
-        <is>
-          <t>PUENTE NUEVE de OCTUBRE (entre Pechina y Manuel de Falla)</t>
-        </is>
-      </c>
-      <c r="B6" s="27" t="n">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="27">
         <v>64137.4</v>
       </c>
-      <c r="C6" s="27" t="n">
-        <v>63804.19607843137</v>
-      </c>
-      <c r="D6" s="27" t="n">
-        <v>64299.10204081632</v>
-      </c>
-      <c r="E6" s="27" t="n">
+      <c r="C6" s="27">
+        <v>63804.196078431371</v>
+      </c>
+      <c r="D6" s="27">
+        <v>64299.102040816324</v>
+      </c>
+      <c r="E6" s="27">
         <v>64183.7</v>
       </c>
-      <c r="F6" s="27" t="n">
-        <v>66556.13043478261</v>
-      </c>
-      <c r="G6" s="27" t="n">
+      <c r="F6" s="27">
+        <v>66556.130434782608</v>
+      </c>
+      <c r="G6" s="27">
         <v>46793.24</v>
       </c>
-      <c r="H6" s="27" t="n">
-        <v>37383.77551020408</v>
-      </c>
-      <c r="I6" s="27" t="n">
-        <v>35337.29411764706</v>
+      <c r="H6" s="27">
+        <v>37383.775510204083</v>
+      </c>
+      <c r="I6" s="27">
+        <v>35337.294117647056</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="28" t="inlineStr">
-        <is>
-          <t>TRES CRUCES (entre Av. del Cid y Tres Forques)</t>
-        </is>
-      </c>
-      <c r="B7" s="26" t="n">
-        <v>60220.0652173913</v>
-      </c>
-      <c r="C7" s="26" t="n">
-        <v>60837.80392156863</v>
-      </c>
-      <c r="D7" s="26" t="n">
-        <v>61824.95918367347</v>
-      </c>
-      <c r="E7" s="26" t="n">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="26">
+        <v>60220.065217391304</v>
+      </c>
+      <c r="C7" s="26">
+        <v>60837.803921568629</v>
+      </c>
+      <c r="D7" s="26">
+        <v>61824.959183673469</v>
+      </c>
+      <c r="E7" s="26">
         <v>60830.12</v>
       </c>
-      <c r="F7" s="26" t="n">
-        <v>62386.44680851064</v>
-      </c>
-      <c r="G7" s="26" t="n">
+      <c r="F7" s="26">
+        <v>62386.446808510642</v>
+      </c>
+      <c r="G7" s="26">
         <v>39939.26</v>
       </c>
-      <c r="H7" s="26" t="n">
+      <c r="H7" s="26">
         <v>32434.54</v>
       </c>
-      <c r="I7" s="26" t="n">
-        <v>31646.29411764706</v>
+      <c r="I7" s="26">
+        <v>31646.294117647059</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="24" t="inlineStr">
-        <is>
-          <t>MARQUES del TURIA (entre Puente Aragón y Hernán Cortés)</t>
-        </is>
-      </c>
-      <c r="B8" s="27" t="n">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="27">
         <v>56507.32608695652</v>
       </c>
-      <c r="C8" s="27" t="n">
-        <v>57539.29411764706</v>
-      </c>
-      <c r="D8" s="27" t="n">
-        <v>58091.61224489796</v>
-      </c>
-      <c r="E8" s="27" t="n">
-        <v>59010.56</v>
-      </c>
-      <c r="F8" s="27" t="n">
-        <v>61860.89361702128</v>
-      </c>
-      <c r="G8" s="27" t="n">
+      <c r="C8" s="27">
+        <v>57539.294117647056</v>
+      </c>
+      <c r="D8" s="27">
+        <v>58091.612244897959</v>
+      </c>
+      <c r="E8" s="27">
+        <v>59010.559999999998</v>
+      </c>
+      <c r="F8" s="27">
+        <v>61860.893617021276</v>
+      </c>
+      <c r="G8" s="27">
         <v>48537.68</v>
       </c>
-      <c r="H8" s="27" t="n">
+      <c r="H8" s="27">
         <v>40492.44</v>
       </c>
-      <c r="I8" s="27" t="n">
+      <c r="I8" s="27">
         <v>37860</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="28" t="inlineStr">
-        <is>
-          <t>RONDA NORTE (entre Av. Cataluña y Emilio Baró)</t>
-        </is>
-      </c>
-      <c r="B9" s="26" t="n">
-        <v>56122.28888888889</v>
-      </c>
-      <c r="C9" s="26" t="n">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="26">
+        <v>56122.288888888892</v>
+      </c>
+      <c r="C9" s="26">
         <v>57262.23529411765</v>
       </c>
-      <c r="D9" s="26" t="n">
-        <v>57951.08333333334</v>
-      </c>
-      <c r="E9" s="26" t="n">
-        <v>58217.63265306123</v>
-      </c>
-      <c r="F9" s="26" t="n">
-        <v>60625.74468085106</v>
-      </c>
-      <c r="G9" s="26" t="n">
-        <v>44805.36734693877</v>
-      </c>
-      <c r="H9" s="26" t="n">
-        <v>39144.75510204081</v>
-      </c>
-      <c r="I9" s="26" t="n">
+      <c r="D9" s="26">
+        <v>57951.083333333336</v>
+      </c>
+      <c r="E9" s="26">
+        <v>58217.632653061228</v>
+      </c>
+      <c r="F9" s="26">
+        <v>60625.744680851065</v>
+      </c>
+      <c r="G9" s="26">
+        <v>44805.367346938772</v>
+      </c>
+      <c r="H9" s="26">
+        <v>39144.755102040814</v>
+      </c>
+      <c r="I9" s="26">
         <v>37423.5625</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="24" t="inlineStr">
-        <is>
-          <t>GIORGETA (entre San Vicente Mártir y Jesús)</t>
-        </is>
-      </c>
-      <c r="B10" s="27" t="n">
-        <v>54303.66666666666</v>
-      </c>
-      <c r="C10" s="27" t="n">
-        <v>52979.71428571428</v>
-      </c>
-      <c r="D10" s="27" t="n">
-        <v>55252.85714285714</v>
-      </c>
-      <c r="E10" s="27" t="n">
-        <v>55969.14285714286</v>
-      </c>
-      <c r="F10" s="27" t="n">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="27">
+        <v>54303.666666666664</v>
+      </c>
+      <c r="C10" s="27">
+        <v>52979.714285714283</v>
+      </c>
+      <c r="D10" s="27">
+        <v>55252.857142857145</v>
+      </c>
+      <c r="E10" s="27">
+        <v>55969.142857142855</v>
+      </c>
+      <c r="F10" s="27">
         <v>57705</v>
       </c>
-      <c r="G10" s="27" t="n">
-        <v>41772.57142857143</v>
-      </c>
-      <c r="H10" s="27" t="n">
-        <v>34207.33333333334</v>
-      </c>
-      <c r="I10" s="27" t="n">
-        <v>36057.33333333334</v>
+      <c r="G10" s="27">
+        <v>41772.571428571428</v>
+      </c>
+      <c r="H10" s="27">
+        <v>34207.333333333336</v>
+      </c>
+      <c r="I10" s="27">
+        <v>36057.333333333336</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="28" t="inlineStr">
-        <is>
-          <t>P.E. GIORGETA (entre San Vicente y Ausias March)</t>
-        </is>
-      </c>
-      <c r="B11" s="26" t="n">
-        <v>53894.0652173913</v>
-      </c>
-      <c r="C11" s="26" t="n">
-        <v>54205.27450980392</v>
-      </c>
-      <c r="D11" s="26" t="n">
-        <v>54746.14285714286</v>
-      </c>
-      <c r="E11" s="26" t="n">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="26">
+        <v>53894.065217391304</v>
+      </c>
+      <c r="C11" s="26">
+        <v>54205.274509803923</v>
+      </c>
+      <c r="D11" s="26">
+        <v>54746.142857142855</v>
+      </c>
+      <c r="E11" s="26">
         <v>55408.68</v>
       </c>
-      <c r="F11" s="26" t="n">
-        <v>57743.70212765958</v>
-      </c>
-      <c r="G11" s="26" t="n">
+      <c r="F11" s="26">
+        <v>57743.702127659577</v>
+      </c>
+      <c r="G11" s="26">
         <v>43721.5</v>
       </c>
-      <c r="H11" s="26" t="n">
-        <v>38054.56</v>
-      </c>
-      <c r="I11" s="26" t="n">
-        <v>36262.70588235294</v>
+      <c r="H11" s="26">
+        <v>38054.559999999998</v>
+      </c>
+      <c r="I11" s="26">
+        <v>36262.705882352944</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="24" t="inlineStr">
-        <is>
-          <t>GERMANIAS (entre Ruzafa y Túnel)</t>
-        </is>
-      </c>
-      <c r="B12" s="27" t="n">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="27">
         <v>50877.84782608696</v>
       </c>
-      <c r="C12" s="27" t="n">
-        <v>52278.13725490196</v>
-      </c>
-      <c r="D12" s="27" t="n">
-        <v>52855.08163265306</v>
-      </c>
-      <c r="E12" s="27" t="n">
+      <c r="C12" s="27">
+        <v>52278.137254901958</v>
+      </c>
+      <c r="D12" s="27">
+        <v>52855.081632653062</v>
+      </c>
+      <c r="E12" s="27">
         <v>53761.4</v>
       </c>
-      <c r="F12" s="27" t="n">
-        <v>56354.65957446808</v>
-      </c>
-      <c r="G12" s="27" t="n">
+      <c r="F12" s="27">
+        <v>56354.659574468082</v>
+      </c>
+      <c r="G12" s="27">
         <v>44855.22</v>
       </c>
-      <c r="H12" s="27" t="n">
-        <v>36986.62</v>
-      </c>
-      <c r="I12" s="27" t="n">
-        <v>34180.52941176471</v>
+      <c r="H12" s="27">
+        <v>36986.620000000003</v>
+      </c>
+      <c r="I12" s="27">
+        <v>34180.529411764706</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="28" t="inlineStr">
-        <is>
-          <t>RAMON Y CAJAL (entre Pl. España y Ángel Guimerá)</t>
-        </is>
-      </c>
-      <c r="B13" s="26" t="n">
-        <v>51524.5652173913</v>
-      </c>
-      <c r="C13" s="26" t="n">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="26">
+        <v>51524.565217391304</v>
+      </c>
+      <c r="C13" s="26">
         <v>52572.28</v>
       </c>
-      <c r="D13" s="26" t="n">
-        <v>52835.66666666666</v>
-      </c>
-      <c r="E13" s="26" t="n">
+      <c r="D13" s="26">
+        <v>52835.666666666664</v>
+      </c>
+      <c r="E13" s="26">
         <v>53298.58</v>
       </c>
-      <c r="F13" s="26" t="n">
-        <v>55283.95744680851</v>
-      </c>
-      <c r="G13" s="26" t="n">
-        <v>42412.81632653061</v>
-      </c>
-      <c r="H13" s="26" t="n">
+      <c r="F13" s="26">
+        <v>55283.957446808512</v>
+      </c>
+      <c r="G13" s="26">
+        <v>42412.816326530614</v>
+      </c>
+      <c r="H13" s="26">
         <v>35416.44</v>
       </c>
-      <c r="I13" s="26" t="n">
-        <v>33220.11764705883</v>
+      <c r="I13" s="26">
+        <v>33220.117647058825</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="24" t="inlineStr">
-        <is>
-          <t>Av. de ARAGON (entre Pl. Zaragoza y Ernesto Ferrer)</t>
-        </is>
-      </c>
-      <c r="B14" s="27" t="n">
-        <v>50194.11956521739</v>
-      </c>
-      <c r="C14" s="27" t="n">
-        <v>50838.37254901961</v>
-      </c>
-      <c r="D14" s="27" t="n">
-        <v>51778.14285714286</v>
-      </c>
-      <c r="E14" s="27" t="n">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="27">
+        <v>50194.119565217392</v>
+      </c>
+      <c r="C14" s="27">
+        <v>50838.372549019608</v>
+      </c>
+      <c r="D14" s="27">
+        <v>51778.142857142855</v>
+      </c>
+      <c r="E14" s="27">
         <v>52295.93</v>
       </c>
-      <c r="F14" s="27" t="n">
-        <v>55085.57446808511</v>
-      </c>
-      <c r="G14" s="27" t="n">
+      <c r="F14" s="27">
+        <v>55085.574468085106</v>
+      </c>
+      <c r="G14" s="27">
         <v>42345.26</v>
       </c>
-      <c r="H14" s="27" t="n">
+      <c r="H14" s="27">
         <v>35503.06</v>
       </c>
-      <c r="I14" s="27" t="n">
-        <v>33689.14705882353</v>
+      <c r="I14" s="27">
+        <v>33689.147058823532</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="28" t="inlineStr">
-        <is>
-          <t>PEREZ GALDOS (entre Ángel Guimerá y Paseo Pechina)</t>
-        </is>
-      </c>
-      <c r="B15" s="26" t="n">
-        <v>50947.48571428571</v>
-      </c>
-      <c r="C15" s="26" t="n">
-        <v>51327.41025641026</v>
-      </c>
-      <c r="D15" s="26" t="n">
-        <v>51661.02631578947</v>
-      </c>
-      <c r="E15" s="26" t="n">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="26">
+        <v>50947.485714285714</v>
+      </c>
+      <c r="C15" s="26">
+        <v>51327.410256410258</v>
+      </c>
+      <c r="D15" s="26">
+        <v>51661.026315789473</v>
+      </c>
+      <c r="E15" s="26">
         <v>51505</v>
       </c>
-      <c r="F15" s="26" t="n">
-        <v>53440.13513513513</v>
-      </c>
-      <c r="G15" s="26" t="n">
-        <v>36561.07692307692</v>
-      </c>
-      <c r="H15" s="26" t="n">
-        <v>29419.17073170732</v>
-      </c>
-      <c r="I15" s="26" t="n">
-        <v>27681.15384615385</v>
+      <c r="F15" s="26">
+        <v>53440.135135135133</v>
+      </c>
+      <c r="G15" s="26">
+        <v>36561.076923076922</v>
+      </c>
+      <c r="H15" s="26">
+        <v>29419.170731707316</v>
+      </c>
+      <c r="I15" s="26">
+        <v>27681.153846153848</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="24" t="inlineStr">
-        <is>
-          <t>TRES CRUCES (entre Tres Forques y Archiduque Carlos)</t>
-        </is>
-      </c>
-      <c r="B16" s="27" t="n">
-        <v>48536.89285714286</v>
-      </c>
-      <c r="C16" s="27" t="n">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="27">
+        <v>48536.892857142855</v>
+      </c>
+      <c r="C16" s="27">
         <v>50019.36363636364</v>
       </c>
-      <c r="D16" s="27" t="n">
+      <c r="D16" s="27">
         <v>50603.46875</v>
       </c>
-      <c r="E16" s="27" t="n">
-        <v>50260.88571428572</v>
-      </c>
-      <c r="F16" s="27" t="n">
+      <c r="E16" s="27">
+        <v>50260.885714285716</v>
+      </c>
+      <c r="F16" s="27">
         <v>51350.42424242424</v>
       </c>
-      <c r="G16" s="27" t="n">
-        <v>32956.52941176471</v>
-      </c>
-      <c r="H16" s="27" t="n">
+      <c r="G16" s="27">
+        <v>32956.529411764706</v>
+      </c>
+      <c r="H16" s="27">
         <v>26593</v>
       </c>
-      <c r="I16" s="27" t="n">
+      <c r="I16" s="27">
         <v>26159.3</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="28" t="inlineStr">
-        <is>
-          <t>DOCTOR PESET ALEIXANDRE (entre Av. Burjasot y Juan XXIII)</t>
-        </is>
-      </c>
-      <c r="B17" s="26" t="n">
-        <v>48560.4651111111</v>
-      </c>
-      <c r="C17" s="26" t="n">
-        <v>48639.83749999999</v>
-      </c>
-      <c r="D17" s="26" t="n">
-        <v>49378.54533333334</v>
-      </c>
-      <c r="E17" s="26" t="n">
-        <v>49355.50020833333</v>
-      </c>
-      <c r="F17" s="26" t="n">
-        <v>51723.4852173913</v>
-      </c>
-      <c r="G17" s="26" t="n">
-        <v>36833.54448979592</v>
-      </c>
-      <c r="H17" s="26" t="n">
-        <v>28727.66734693878</v>
-      </c>
-      <c r="I17" s="26" t="n">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="26">
+        <v>48560.465111111102</v>
+      </c>
+      <c r="C17" s="26">
+        <v>48639.837499999994</v>
+      </c>
+      <c r="D17" s="26">
+        <v>49378.545333333335</v>
+      </c>
+      <c r="E17" s="26">
+        <v>49355.500208333331</v>
+      </c>
+      <c r="F17" s="26">
+        <v>51723.485217391302</v>
+      </c>
+      <c r="G17" s="26">
+        <v>36833.544489795917</v>
+      </c>
+      <c r="H17" s="26">
+        <v>28727.667346938779</v>
+      </c>
+      <c r="I17" s="26">
         <v>27747.97</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="24" t="inlineStr">
-        <is>
-          <t>AUSIAS MARCH (entre Av. de la Plata y Peris y Valero)</t>
-        </is>
-      </c>
-      <c r="B18" s="27" t="n">
-        <v>47656.79347826087</v>
-      </c>
-      <c r="C18" s="27" t="n">
-        <v>47859.19607843137</v>
-      </c>
-      <c r="D18" s="27" t="n">
-        <v>48378.79166666666</v>
-      </c>
-      <c r="E18" s="27" t="n">
-        <v>49045.28</v>
-      </c>
-      <c r="F18" s="27" t="n">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="27">
+        <v>47656.793478260872</v>
+      </c>
+      <c r="C18" s="27">
+        <v>47859.196078431371</v>
+      </c>
+      <c r="D18" s="27">
+        <v>48378.791666666664</v>
+      </c>
+      <c r="E18" s="27">
+        <v>49045.279999999999</v>
+      </c>
+      <c r="F18" s="27">
         <v>50722.40217391304</v>
       </c>
-      <c r="G18" s="27" t="n">
-        <v>41851.98979591837</v>
-      </c>
-      <c r="H18" s="27" t="n">
+      <c r="G18" s="27">
+        <v>41851.989795918365</v>
+      </c>
+      <c r="H18" s="27">
         <v>34694</v>
       </c>
-      <c r="I18" s="27" t="n">
-        <v>32997.44117647059</v>
+      <c r="I18" s="27">
+        <v>32997.441176470587</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="28" t="inlineStr">
-        <is>
-          <t>FERNANDO EL CATOLICO (entre Ángel Guimerá y Paseo Pechina)</t>
-        </is>
-      </c>
-      <c r="B19" s="26" t="n">
-        <v>46825.69565217391</v>
-      </c>
-      <c r="C19" s="26" t="n">
-        <v>48173.03921568627</v>
-      </c>
-      <c r="D19" s="26" t="n">
-        <v>48592.89795918368</v>
-      </c>
-      <c r="E19" s="26" t="n">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="26">
+        <v>46825.695652173912</v>
+      </c>
+      <c r="C19" s="26">
+        <v>48173.039215686273</v>
+      </c>
+      <c r="D19" s="26">
+        <v>48592.897959183676</v>
+      </c>
+      <c r="E19" s="26">
         <v>48749.84</v>
       </c>
-      <c r="F19" s="26" t="n">
-        <v>50116.5652173913</v>
-      </c>
-      <c r="G19" s="26" t="n">
-        <v>37505.22448979592</v>
-      </c>
-      <c r="H19" s="26" t="n">
-        <v>30121.02040816327</v>
-      </c>
-      <c r="I19" s="26" t="n">
-        <v>27997.52941176471</v>
+      <c r="F19" s="26">
+        <v>50116.565217391304</v>
+      </c>
+      <c r="G19" s="26">
+        <v>37505.224489795917</v>
+      </c>
+      <c r="H19" s="26">
+        <v>30121.020408163266</v>
+      </c>
+      <c r="I19" s="26">
+        <v>27997.529411764706</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>DOCTOR PESET ALEIXANDRE (entre Juan XXIII y Camino de Moncada)</t>
-        </is>
-      </c>
-      <c r="B20" s="27" t="n">
-        <v>45179.59090909091</v>
-      </c>
-      <c r="C20" s="27" t="n">
-        <v>46244.81632653061</v>
-      </c>
-      <c r="D20" s="27" t="n">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="27">
+        <v>45179.590909090912</v>
+      </c>
+      <c r="C20" s="27">
+        <v>46244.816326530614</v>
+      </c>
+      <c r="D20" s="27">
         <v>46531.6</v>
       </c>
-      <c r="E20" s="27" t="n">
-        <v>46821.70833333334</v>
-      </c>
-      <c r="F20" s="27" t="n">
+      <c r="E20" s="27">
+        <v>46821.708333333336</v>
+      </c>
+      <c r="F20" s="27">
         <v>48316</v>
       </c>
-      <c r="G20" s="27" t="n">
-        <v>34440.23404255319</v>
-      </c>
-      <c r="H20" s="27" t="n">
-        <v>27153.97872340426</v>
-      </c>
-      <c r="I20" s="27" t="n">
-        <v>27298.11764705883</v>
+      <c r="G20" s="27">
+        <v>34440.234042553195</v>
+      </c>
+      <c r="H20" s="27">
+        <v>27153.978723404256</v>
+      </c>
+      <c r="I20" s="27">
+        <v>27298.117647058825</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="28" t="inlineStr">
-        <is>
-          <t>SERRERIA (entre Av. del Puerto y Santos Justo y Pastor)</t>
-        </is>
-      </c>
-      <c r="B21" s="26" t="n">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="26">
         <v>44383.15217391304</v>
       </c>
-      <c r="C21" s="26" t="n">
-        <v>44871.39215686275</v>
-      </c>
-      <c r="D21" s="26" t="n">
-        <v>45425.61224489796</v>
-      </c>
-      <c r="E21" s="26" t="n">
+      <c r="C21" s="26">
+        <v>44871.392156862748</v>
+      </c>
+      <c r="D21" s="26">
+        <v>45425.612244897959</v>
+      </c>
+      <c r="E21" s="26">
         <v>46302.52</v>
       </c>
-      <c r="F21" s="26" t="n">
-        <v>48462.87234042553</v>
-      </c>
-      <c r="G21" s="26" t="n">
-        <v>37360.84</v>
-      </c>
-      <c r="H21" s="26" t="n">
-        <v>30616.18367346939</v>
-      </c>
-      <c r="I21" s="26" t="n">
-        <v>29608.82352941177</v>
+      <c r="F21" s="26">
+        <v>48462.872340425529</v>
+      </c>
+      <c r="G21" s="26">
+        <v>37360.839999999997</v>
+      </c>
+      <c r="H21" s="26">
+        <v>30616.183673469386</v>
+      </c>
+      <c r="I21" s="26">
+        <v>29608.823529411766</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="24" t="inlineStr">
-        <is>
-          <t>GENERAL AVILES (entre Pío XII y Av. Burjasot)</t>
-        </is>
-      </c>
-      <c r="B22" s="27" t="n">
-        <v>44966.66666666666</v>
-      </c>
-      <c r="C22" s="27" t="n">
-        <v>44928.57142857143</v>
-      </c>
-      <c r="D22" s="27" t="n">
-        <v>45460.85416666666</v>
-      </c>
-      <c r="E22" s="27" t="n">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="27">
+        <v>44966.666666666664</v>
+      </c>
+      <c r="C22" s="27">
+        <v>44928.571428571428</v>
+      </c>
+      <c r="D22" s="27">
+        <v>45460.854166666664</v>
+      </c>
+      <c r="E22" s="27">
         <v>45551.1</v>
       </c>
-      <c r="F22" s="27" t="n">
-        <v>48035.4347826087</v>
-      </c>
-      <c r="G22" s="27" t="n">
-        <v>34130.06382978724</v>
-      </c>
-      <c r="H22" s="27" t="n">
-        <v>25755.93617021276</v>
-      </c>
-      <c r="I22" s="27" t="n">
-        <v>25261.88235294117</v>
+      <c r="F22" s="27">
+        <v>48035.434782608696</v>
+      </c>
+      <c r="G22" s="27">
+        <v>34130.063829787236</v>
+      </c>
+      <c r="H22" s="27">
+        <v>25755.936170212764</v>
+      </c>
+      <c r="I22" s="27">
+        <v>25261.882352941175</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="28" t="inlineStr">
-        <is>
-          <t>PRIMADO REIG (entre Av. Constitución y Alfahuir)</t>
-        </is>
-      </c>
-      <c r="B23" s="26" t="n">
-        <v>44037.44186046511</v>
-      </c>
-      <c r="C23" s="26" t="n">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="26">
+        <v>44037.441860465115</v>
+      </c>
+      <c r="C23" s="26">
         <v>44621.23529411765</v>
       </c>
-      <c r="D23" s="26" t="n">
-        <v>45050.16326530612</v>
-      </c>
-      <c r="E23" s="26" t="n">
+      <c r="D23" s="26">
+        <v>45050.163265306124</v>
+      </c>
+      <c r="E23" s="26">
         <v>45254.36</v>
       </c>
-      <c r="F23" s="26" t="n">
-        <v>47030.64444444444</v>
-      </c>
-      <c r="G23" s="26" t="n">
-        <v>33041.77083333334</v>
-      </c>
-      <c r="H23" s="26" t="n">
-        <v>27199.64444444445</v>
-      </c>
-      <c r="I23" s="26" t="n">
-        <v>26399.29411764706</v>
+      <c r="F23" s="26">
+        <v>47030.644444444442</v>
+      </c>
+      <c r="G23" s="26">
+        <v>33041.770833333336</v>
+      </c>
+      <c r="H23" s="26">
+        <v>27199.644444444446</v>
+      </c>
+      <c r="I23" s="26">
+        <v>26399.294117647059</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="24" t="inlineStr">
-        <is>
-          <t>Av. de los NARANJOS (entre Ramón Llull y Av. de Cataluña)</t>
-        </is>
-      </c>
-      <c r="B24" s="27" t="n">
-        <v>42256.13333333333</v>
-      </c>
-      <c r="C24" s="27" t="n">
-        <v>43019.86734693877</v>
-      </c>
-      <c r="D24" s="27" t="n">
-        <v>43335.02040816326</v>
-      </c>
-      <c r="E24" s="27" t="n">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="27">
+        <v>42256.133333333331</v>
+      </c>
+      <c r="C24" s="27">
+        <v>43019.867346938772</v>
+      </c>
+      <c r="D24" s="27">
+        <v>43335.020408163262</v>
+      </c>
+      <c r="E24" s="27">
         <v>43763.5</v>
       </c>
-      <c r="F24" s="27" t="n">
-        <v>45172.24468085106</v>
-      </c>
-      <c r="G24" s="27" t="n">
-        <v>33932.62</v>
-      </c>
-      <c r="H24" s="27" t="n">
+      <c r="F24" s="27">
+        <v>45172.244680851065</v>
+      </c>
+      <c r="G24" s="27">
+        <v>33932.620000000003</v>
+      </c>
+      <c r="H24" s="27">
         <v>31171.23</v>
       </c>
-      <c r="I24" s="27" t="n">
+      <c r="I24" s="27">
         <v>29220.53125</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="28" t="inlineStr">
-        <is>
-          <t>SERRERIA (entre Santos Justo y Pastor y Blasco Ibáñez)</t>
-        </is>
-      </c>
-      <c r="B25" s="26" t="n">
-        <v>41173.67741935484</v>
-      </c>
-      <c r="C25" s="26" t="n">
-        <v>41804.02941176471</v>
-      </c>
-      <c r="D25" s="26" t="n">
-        <v>42499.52941176471</v>
-      </c>
-      <c r="E25" s="26" t="n">
-        <v>43588.39393939394</v>
-      </c>
-      <c r="F25" s="26" t="n">
-        <v>45478.36666666667</v>
-      </c>
-      <c r="G25" s="26" t="n">
-        <v>34510.97222222222</v>
-      </c>
-      <c r="H25" s="26" t="n">
-        <v>29135.31428571428</v>
-      </c>
-      <c r="I25" s="26" t="n">
-        <v>28609.27272727273</v>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="26">
+        <v>41173.677419354841</v>
+      </c>
+      <c r="C25" s="26">
+        <v>41804.029411764706</v>
+      </c>
+      <c r="D25" s="26">
+        <v>42499.529411764706</v>
+      </c>
+      <c r="E25" s="26">
+        <v>43588.393939393936</v>
+      </c>
+      <c r="F25" s="26">
+        <v>45478.366666666669</v>
+      </c>
+      <c r="G25" s="26">
+        <v>34510.972222222219</v>
+      </c>
+      <c r="H25" s="26">
+        <v>29135.314285714285</v>
+      </c>
+      <c r="I25" s="26">
+        <v>28609.272727272728</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="24" t="inlineStr">
-        <is>
-          <t>P.I. GERMANIAS (Puente Aragón)</t>
-        </is>
-      </c>
-      <c r="B26" s="27" t="n">
-        <v>40183.17777777778</v>
-      </c>
-      <c r="C26" s="27" t="n">
-        <v>41366.05882352941</v>
-      </c>
-      <c r="D26" s="27" t="n">
-        <v>41847.38775510204</v>
-      </c>
-      <c r="E26" s="27" t="n">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="27">
+        <v>40183.177777777775</v>
+      </c>
+      <c r="C26" s="27">
+        <v>41366.058823529413</v>
+      </c>
+      <c r="D26" s="27">
+        <v>41847.387755102041</v>
+      </c>
+      <c r="E26" s="27">
         <v>42520.54</v>
       </c>
-      <c r="F26" s="27" t="n">
-        <v>44793.61702127659</v>
-      </c>
-      <c r="G26" s="27" t="n">
+      <c r="F26" s="27">
+        <v>44793.617021276594</v>
+      </c>
+      <c r="G26" s="27">
         <v>34330.36</v>
       </c>
-      <c r="H26" s="27" t="n">
+      <c r="H26" s="27">
         <v>29697.16</v>
       </c>
-      <c r="I26" s="27" t="n">
-        <v>27168.88235294117</v>
+      <c r="I26" s="27">
+        <v>27168.882352941175</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="28" t="inlineStr">
-        <is>
-          <t>MAESTRO RODRIGO (entre Valle de la Ballestera y General Avilés)</t>
-        </is>
-      </c>
-      <c r="B27" s="26" t="n">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="26">
         <v>39613.75</v>
       </c>
-      <c r="C27" s="26" t="n">
-        <v>40523.89473684211</v>
-      </c>
-      <c r="D27" s="26" t="n">
-        <v>40716.33333333334</v>
-      </c>
-      <c r="E27" s="26" t="n">
-        <v>40718.08333333334</v>
-      </c>
-      <c r="F27" s="26" t="n">
-        <v>41769.45714285714</v>
-      </c>
-      <c r="G27" s="26" t="n">
-        <v>27332.10810810811</v>
-      </c>
-      <c r="H27" s="26" t="n">
-        <v>21134.92307692308</v>
-      </c>
-      <c r="I27" s="26" t="n">
+      <c r="C27" s="26">
+        <v>40523.894736842107</v>
+      </c>
+      <c r="D27" s="26">
+        <v>40716.333333333336</v>
+      </c>
+      <c r="E27" s="26">
+        <v>40718.083333333336</v>
+      </c>
+      <c r="F27" s="26">
+        <v>41769.457142857143</v>
+      </c>
+      <c r="G27" s="26">
+        <v>27332.108108108107</v>
+      </c>
+      <c r="H27" s="26">
+        <v>21134.923076923078</v>
+      </c>
+      <c r="I27" s="26">
         <v>21009.23076923077</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="24" t="inlineStr">
-        <is>
-          <t>CONDE TRENOR (de Puente de Serranos a Puente de la Trinidad)</t>
-        </is>
-      </c>
-      <c r="B28" s="27" t="n">
-        <v>39265.21739130434</v>
-      </c>
-      <c r="C28" s="27" t="n">
-        <v>39989.25490196078</v>
-      </c>
-      <c r="D28" s="27" t="n">
-        <v>40471.30612244898</v>
-      </c>
-      <c r="E28" s="27" t="n">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="27">
+        <v>39265.217391304344</v>
+      </c>
+      <c r="C28" s="27">
+        <v>39989.254901960783</v>
+      </c>
+      <c r="D28" s="27">
+        <v>40471.306122448979</v>
+      </c>
+      <c r="E28" s="27">
         <v>40651.5</v>
       </c>
-      <c r="F28" s="27" t="n">
-        <v>41959.06382978724</v>
-      </c>
-      <c r="G28" s="27" t="n">
+      <c r="F28" s="27">
+        <v>41959.063829787236</v>
+      </c>
+      <c r="G28" s="27">
         <v>31203.52</v>
       </c>
-      <c r="H28" s="27" t="n">
+      <c r="H28" s="27">
         <v>25210.2</v>
       </c>
-      <c r="I28" s="27" t="n">
-        <v>23223.52941176471</v>
+      <c r="I28" s="27">
+        <v>23223.529411764706</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="28" t="inlineStr">
-        <is>
-          <t>MAESTRO RODRIGO (entre Puente Campanar y Valle de la Ballestera)</t>
-        </is>
-      </c>
-      <c r="B29" s="26" t="n">
-        <v>38265.10869565218</v>
-      </c>
-      <c r="C29" s="26" t="n">
-        <v>38965.8</v>
-      </c>
-      <c r="D29" s="26" t="n">
-        <v>39170.78723404255</v>
-      </c>
-      <c r="E29" s="26" t="n">
-        <v>39088.84</v>
-      </c>
-      <c r="F29" s="26" t="n">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="26">
+        <v>38265.108695652176</v>
+      </c>
+      <c r="C29" s="26">
+        <v>38965.800000000003</v>
+      </c>
+      <c r="D29" s="26">
+        <v>39170.787234042553</v>
+      </c>
+      <c r="E29" s="26">
+        <v>39088.839999999997</v>
+      </c>
+      <c r="F29" s="26">
         <v>40627</v>
       </c>
-      <c r="G29" s="26" t="n">
+      <c r="G29" s="26">
         <v>27074.14</v>
       </c>
-      <c r="H29" s="26" t="n">
-        <v>20812.95918367347</v>
-      </c>
-      <c r="I29" s="26" t="n">
-        <v>21124.94117647059</v>
+      <c r="H29" s="26">
+        <v>20812.959183673469</v>
+      </c>
+      <c r="I29" s="26">
+        <v>21124.941176470587</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="24" t="inlineStr">
-        <is>
-          <t>PERIS Y VALERO (entre Ausias March y Zapadores)</t>
-        </is>
-      </c>
-      <c r="B30" s="27" t="n">
-        <v>37794.05263157895</v>
-      </c>
-      <c r="C30" s="27" t="n">
-        <v>37935.35714285714</v>
-      </c>
-      <c r="D30" s="27" t="n">
-        <v>38237.90697674418</v>
-      </c>
-      <c r="E30" s="27" t="n">
-        <v>38712.72727272727</v>
-      </c>
-      <c r="F30" s="27" t="n">
-        <v>40561.19047619047</v>
-      </c>
-      <c r="G30" s="27" t="n">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="27">
+        <v>37794.052631578947</v>
+      </c>
+      <c r="C30" s="27">
+        <v>37935.357142857145</v>
+      </c>
+      <c r="D30" s="27">
+        <v>38237.906976744183</v>
+      </c>
+      <c r="E30" s="27">
+        <v>38712.727272727272</v>
+      </c>
+      <c r="F30" s="27">
+        <v>40561.190476190473</v>
+      </c>
+      <c r="G30" s="27">
         <v>30462.43181818182</v>
       </c>
-      <c r="H30" s="27" t="n">
-        <v>26673.36363636364</v>
-      </c>
-      <c r="I30" s="27" t="n">
-        <v>25849.35714285714</v>
+      <c r="H30" s="27">
+        <v>26673.363636363636</v>
+      </c>
+      <c r="I30" s="27">
+        <v>25849.357142857141</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="28" t="inlineStr">
-        <is>
-          <t>EDUARDO BOSCA (entre Paseo de la Alameda y Av. del Puerto)</t>
-        </is>
-      </c>
-      <c r="B31" s="26" t="n">
-        <v>37609.48913043478</v>
-      </c>
-      <c r="C31" s="26" t="n">
-        <v>37634.88</v>
-      </c>
-      <c r="D31" s="26" t="n">
-        <v>38284.45918367347</v>
-      </c>
-      <c r="E31" s="26" t="n">
-        <v>38700.87</v>
-      </c>
-      <c r="F31" s="26" t="n">
-        <v>40540.20212765958</v>
-      </c>
-      <c r="G31" s="26" t="n">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="26">
+        <v>37609.489130434784</v>
+      </c>
+      <c r="C31" s="26">
+        <v>37634.879999999997</v>
+      </c>
+      <c r="D31" s="26">
+        <v>38284.459183673469</v>
+      </c>
+      <c r="E31" s="26">
+        <v>38700.870000000003</v>
+      </c>
+      <c r="F31" s="26">
+        <v>40540.202127659577</v>
+      </c>
+      <c r="G31" s="26">
         <v>29489.71</v>
       </c>
-      <c r="H31" s="26" t="n">
+      <c r="H31" s="26">
         <v>25442.28</v>
       </c>
-      <c r="I31" s="26" t="n">
-        <v>24473.88235294117</v>
+      <c r="I31" s="26">
+        <v>24473.882352941175</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="24" t="inlineStr">
-        <is>
-          <t>ALCALDE REIG (de Av. de la Plata a Reino de Valencia)</t>
-        </is>
-      </c>
-      <c r="B32" s="27" t="n">
-        <v>36342.13333333333</v>
-      </c>
-      <c r="C32" s="27" t="n">
-        <v>36505.56862745098</v>
-      </c>
-      <c r="D32" s="27" t="n">
-        <v>37348.93877551021</v>
-      </c>
-      <c r="E32" s="27" t="n">
-        <v>37711.02</v>
-      </c>
-      <c r="F32" s="27" t="n">
-        <v>40152.34042553192</v>
-      </c>
-      <c r="G32" s="27" t="n">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="27">
+        <v>36342.133333333331</v>
+      </c>
+      <c r="C32" s="27">
+        <v>36505.568627450979</v>
+      </c>
+      <c r="D32" s="27">
+        <v>37348.938775510207</v>
+      </c>
+      <c r="E32" s="27">
+        <v>37711.019999999997</v>
+      </c>
+      <c r="F32" s="27">
+        <v>40152.340425531918</v>
+      </c>
+      <c r="G32" s="27">
         <v>30483.16</v>
       </c>
-      <c r="H32" s="27" t="n">
-        <v>26102.24</v>
-      </c>
-      <c r="I32" s="27" t="n">
-        <v>23771.70588235294</v>
+      <c r="H32" s="27">
+        <v>26102.240000000002</v>
+      </c>
+      <c r="I32" s="27">
+        <v>23771.705882352941</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="28" t="inlineStr">
-        <is>
-          <t>BLASCO IBAÑEZ (entre Doctor Moliner y Av. Aragón)</t>
-        </is>
-      </c>
-      <c r="B33" s="26" t="n">
-        <v>36395.95454545454</v>
-      </c>
-      <c r="C33" s="26" t="n">
-        <v>36500.66666666666</v>
-      </c>
-      <c r="D33" s="26" t="n">
-        <v>37075.75510204081</v>
-      </c>
-      <c r="E33" s="26" t="n">
-        <v>36862.87755102041</v>
-      </c>
-      <c r="F33" s="26" t="n">
-        <v>37741.58695652174</v>
-      </c>
-      <c r="G33" s="26" t="n">
-        <v>26054.95833333333</v>
-      </c>
-      <c r="H33" s="26" t="n">
-        <v>21460.70833333333</v>
-      </c>
-      <c r="I33" s="26" t="n">
-        <v>20666.64705882353</v>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="26">
+        <v>36395.954545454544</v>
+      </c>
+      <c r="C33" s="26">
+        <v>36500.666666666664</v>
+      </c>
+      <c r="D33" s="26">
+        <v>37075.755102040814</v>
+      </c>
+      <c r="E33" s="26">
+        <v>36862.877551020407</v>
+      </c>
+      <c r="F33" s="26">
+        <v>37741.586956521736</v>
+      </c>
+      <c r="G33" s="26">
+        <v>26054.958333333332</v>
+      </c>
+      <c r="H33" s="26">
+        <v>21460.708333333332</v>
+      </c>
+      <c r="I33" s="26">
+        <v>20666.647058823528</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="24" t="inlineStr">
-        <is>
-          <t>BLASCO IBAÑEZ (entre Avenida de Aragón y Clariano)</t>
-        </is>
-      </c>
-      <c r="B34" s="27" t="n">
-        <v>33842.33695652174</v>
-      </c>
-      <c r="C34" s="27" t="n">
-        <v>34505.25490196078</v>
-      </c>
-      <c r="D34" s="27" t="n">
-        <v>35129.69387755102</v>
-      </c>
-      <c r="E34" s="27" t="n">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="27">
+        <v>33842.336956521736</v>
+      </c>
+      <c r="C34" s="27">
+        <v>34505.254901960783</v>
+      </c>
+      <c r="D34" s="27">
+        <v>35129.693877551021</v>
+      </c>
+      <c r="E34" s="27">
         <v>35459.83</v>
       </c>
-      <c r="F34" s="27" t="n">
-        <v>37240.09574468085</v>
-      </c>
-      <c r="G34" s="27" t="n">
-        <v>27356.89795918367</v>
-      </c>
-      <c r="H34" s="27" t="n">
+      <c r="F34" s="27">
+        <v>37240.095744680853</v>
+      </c>
+      <c r="G34" s="27">
+        <v>27356.897959183672</v>
+      </c>
+      <c r="H34" s="27">
         <v>23590.3</v>
       </c>
-      <c r="I34" s="27" t="n">
-        <v>21914.52941176471</v>
+      <c r="I34" s="27">
+        <v>21914.529411764706</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="28" t="inlineStr">
-        <is>
-          <t>FERNANDO ABRIL MARTORELL (entre Carrera de Malilla y Ausias March)</t>
-        </is>
-      </c>
-      <c r="B35" s="26" t="n">
-        <v>34661.23913043478</v>
-      </c>
-      <c r="C35" s="26" t="n">
-        <v>35211.11764705883</v>
-      </c>
-      <c r="D35" s="26" t="n">
-        <v>35361.69387755102</v>
-      </c>
-      <c r="E35" s="26" t="n">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="26">
+        <v>34661.239130434784</v>
+      </c>
+      <c r="C35" s="26">
+        <v>35211.117647058825</v>
+      </c>
+      <c r="D35" s="26">
+        <v>35361.693877551021</v>
+      </c>
+      <c r="E35" s="26">
         <v>35144.76</v>
       </c>
-      <c r="F35" s="26" t="n">
-        <v>35667.72340425532</v>
-      </c>
-      <c r="G35" s="26" t="n">
+      <c r="F35" s="26">
+        <v>35667.723404255317</v>
+      </c>
+      <c r="G35" s="26">
         <v>24073.34</v>
       </c>
-      <c r="H35" s="26" t="n">
+      <c r="H35" s="26">
         <v>19658.02</v>
       </c>
-      <c r="I35" s="26" t="n">
-        <v>19577.47058823529</v>
+      <c r="I35" s="26">
+        <v>19577.470588235294</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="24" t="inlineStr">
-        <is>
-          <t>GUILLEM de CASTRO (de Puente de las Artes a Puente de San José)</t>
-        </is>
-      </c>
-      <c r="B36" s="27" t="n">
-        <v>33088.22222222222</v>
-      </c>
-      <c r="C36" s="27" t="n">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="27">
+        <v>33088.222222222219</v>
+      </c>
+      <c r="C36" s="27">
         <v>33779.76470588235</v>
       </c>
-      <c r="D36" s="27" t="n">
-        <v>34035.72340425532</v>
-      </c>
-      <c r="E36" s="27" t="n">
+      <c r="D36" s="27">
+        <v>34035.723404255317</v>
+      </c>
+      <c r="E36" s="27">
         <v>34414.36</v>
       </c>
-      <c r="F36" s="27" t="n">
+      <c r="F36" s="27">
         <v>35757.17391304348</v>
       </c>
-      <c r="G36" s="27" t="n">
-        <v>26305.24489795918</v>
-      </c>
-      <c r="H36" s="27" t="n">
+      <c r="G36" s="27">
+        <v>26305.244897959183</v>
+      </c>
+      <c r="H36" s="27">
         <v>21166.91489361702</v>
       </c>
-      <c r="I36" s="27" t="n">
+      <c r="I36" s="27">
         <v>20074.4375</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>BLANQUERIAS (de Puente de San José a Pte. de Serranos)</t>
-        </is>
-      </c>
-      <c r="B37" s="26" t="n">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="26">
         <v>32348.67391304348</v>
       </c>
-      <c r="C37" s="26" t="n">
-        <v>32981.3</v>
-      </c>
-      <c r="D37" s="26" t="n">
-        <v>33306.14893617021</v>
-      </c>
-      <c r="E37" s="26" t="n">
-        <v>33523.28</v>
-      </c>
-      <c r="F37" s="26" t="n">
+      <c r="C37" s="26">
+        <v>32981.300000000003</v>
+      </c>
+      <c r="D37" s="26">
+        <v>33306.148936170212</v>
+      </c>
+      <c r="E37" s="26">
+        <v>33523.279999999999</v>
+      </c>
+      <c r="F37" s="26">
         <v>34897.17391304348</v>
       </c>
-      <c r="G37" s="26" t="n">
-        <v>25664.81632653061</v>
-      </c>
-      <c r="H37" s="26" t="n">
-        <v>20371.89361702128</v>
-      </c>
-      <c r="I37" s="26" t="n">
+      <c r="G37" s="26">
+        <v>25664.816326530614</v>
+      </c>
+      <c r="H37" s="26">
+        <v>20371.893617021276</v>
+      </c>
+      <c r="I37" s="26">
         <v>19579.875</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="24" t="inlineStr">
-        <is>
-          <t>PINTOR LOPEZ (de Puente de la Trinidad a Puente del Real)</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="n">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="27">
         <v>31552.82608695652</v>
       </c>
-      <c r="C38" s="27" t="n">
-        <v>32223.88235294117</v>
-      </c>
-      <c r="D38" s="27" t="n">
+      <c r="C38" s="27">
+        <v>32223.882352941175</v>
+      </c>
+      <c r="D38" s="27">
         <v>32639.65306122449</v>
       </c>
-      <c r="E38" s="27" t="n">
-        <v>33164.91836734694</v>
-      </c>
-      <c r="F38" s="27" t="n">
-        <v>34234.73913043478</v>
-      </c>
-      <c r="G38" s="27" t="n">
-        <v>25228.08163265306</v>
-      </c>
-      <c r="H38" s="27" t="n">
+      <c r="E38" s="27">
+        <v>33164.918367346938</v>
+      </c>
+      <c r="F38" s="27">
+        <v>34234.739130434784</v>
+      </c>
+      <c r="G38" s="27">
+        <v>25228.081632653062</v>
+      </c>
+      <c r="H38" s="27">
         <v>19284.78</v>
       </c>
-      <c r="I38" s="27" t="n">
+      <c r="I38" s="27">
         <v>18845.125</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>CARDENAL BENLLOCH (entre Santos Justo y Pastor y Blasco Ibáñez)</t>
-        </is>
-      </c>
-      <c r="B39" s="26" t="n">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="26">
         <v>31646.87777777778</v>
       </c>
-      <c r="C39" s="26" t="n">
-        <v>31762.59803921569</v>
-      </c>
-      <c r="D39" s="26" t="n">
+      <c r="C39" s="26">
+        <v>31762.598039215685</v>
+      </c>
+      <c r="D39" s="26">
         <v>32252.59375</v>
       </c>
-      <c r="E39" s="26" t="n">
+      <c r="E39" s="26">
         <v>32466.92</v>
       </c>
-      <c r="F39" s="26" t="n">
-        <v>34182.94680851064</v>
-      </c>
-      <c r="G39" s="26" t="n">
-        <v>24064.82653061224</v>
-      </c>
-      <c r="H39" s="26" t="n">
-        <v>20251.04081632653</v>
-      </c>
-      <c r="I39" s="26" t="n">
-        <v>19895.55882352941</v>
+      <c r="F39" s="26">
+        <v>34182.946808510642</v>
+      </c>
+      <c r="G39" s="26">
+        <v>24064.826530612245</v>
+      </c>
+      <c r="H39" s="26">
+        <v>20251.040816326531</v>
+      </c>
+      <c r="I39" s="26">
+        <v>19895.558823529413</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="24" t="inlineStr">
-        <is>
-          <t>DOCTOR MANUEL CANDELA (entre Av. del Puerto y Santos Justo y Pastor)</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="n">
-        <v>30347.99955555555</v>
-      </c>
-      <c r="C40" s="27" t="n">
-        <v>30434.17117647059</v>
-      </c>
-      <c r="D40" s="27" t="n">
-        <v>30618.69183673469</v>
-      </c>
-      <c r="E40" s="27" t="n">
-        <v>30882.6812</v>
-      </c>
-      <c r="F40" s="27" t="n">
-        <v>31940.97456521739</v>
-      </c>
-      <c r="G40" s="27" t="n">
-        <v>22485.99448979591</v>
-      </c>
-      <c r="H40" s="27" t="n">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="27">
+        <v>30347.999555555554</v>
+      </c>
+      <c r="C40" s="27">
+        <v>30434.171176470594</v>
+      </c>
+      <c r="D40" s="27">
+        <v>30618.691836734692</v>
+      </c>
+      <c r="E40" s="27">
+        <v>30882.681199999995</v>
+      </c>
+      <c r="F40" s="27">
+        <v>31940.974565217392</v>
+      </c>
+      <c r="G40" s="27">
+        <v>22485.994489795914</v>
+      </c>
+      <c r="H40" s="27">
         <v>18974.4054</v>
       </c>
-      <c r="I40" s="27" t="n">
-        <v>18096.79529411765</v>
+      <c r="I40" s="27">
+        <v>18096.795294117652</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>LUIS PEIXO (entre Blasco Ibáñez y Av. de los Naranjos)</t>
-        </is>
-      </c>
-      <c r="B41" s="26" t="n">
-        <v>29796.65217391304</v>
-      </c>
-      <c r="C41" s="26" t="n">
-        <v>30178.96</v>
-      </c>
-      <c r="D41" s="26" t="n">
-        <v>30743.91666666667</v>
-      </c>
-      <c r="E41" s="26" t="n">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="26">
+        <v>29796.652173913044</v>
+      </c>
+      <c r="C41" s="26">
+        <v>30178.959999999999</v>
+      </c>
+      <c r="D41" s="26">
+        <v>30743.916666666668</v>
+      </c>
+      <c r="E41" s="26">
         <v>30746.54</v>
       </c>
-      <c r="F41" s="26" t="n">
-        <v>31970.8085106383</v>
-      </c>
-      <c r="G41" s="26" t="n">
-        <v>24717.44</v>
-      </c>
-      <c r="H41" s="26" t="n">
+      <c r="F41" s="26">
+        <v>31970.808510638297</v>
+      </c>
+      <c r="G41" s="26">
+        <v>24717.439999999999</v>
+      </c>
+      <c r="H41" s="26">
         <v>21241.24</v>
       </c>
-      <c r="I41" s="26" t="n">
-        <v>20570.11764705883</v>
+      <c r="I41" s="26">
+        <v>20570.117647058825</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="24" t="inlineStr">
-        <is>
-          <t>PUENTE de MONTEOLIVETE (entre Alameda y Profesor López Piñero)</t>
-        </is>
-      </c>
-      <c r="B42" s="27" t="n">
-        <v>29664.97674418605</v>
-      </c>
-      <c r="C42" s="27" t="n">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="27">
+        <v>29664.976744186046</v>
+      </c>
+      <c r="C42" s="27">
         <v>29715.48</v>
       </c>
-      <c r="D42" s="27" t="n">
-        <v>30288.3829787234</v>
-      </c>
-      <c r="E42" s="27" t="n">
-        <v>30555.04166666667</v>
-      </c>
-      <c r="F42" s="27" t="n">
-        <v>31946.27272727273</v>
-      </c>
-      <c r="G42" s="27" t="n">
-        <v>22637.71739130435</v>
-      </c>
-      <c r="H42" s="27" t="n">
+      <c r="D42" s="27">
+        <v>30288.382978723403</v>
+      </c>
+      <c r="E42" s="27">
+        <v>30555.041666666668</v>
+      </c>
+      <c r="F42" s="27">
+        <v>31946.272727272728</v>
+      </c>
+      <c r="G42" s="27">
+        <v>22637.717391304348</v>
+      </c>
+      <c r="H42" s="27">
         <v>19146.6875</v>
       </c>
-      <c r="I42" s="27" t="n">
+      <c r="I42" s="27">
         <v>17614.875</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Se incluyen los tramos con medición de intensidad de tráfico y cuya IMD anual es superior a 30.000 vehículos. (-) Sin datos.</t>
-        </is>
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>